--- a/raw_data/20200818_saline/20200818_Sensor1_Test_50.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_50.xlsx
@@ -1,628 +1,1044 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7974D8-646B-48EC-9885-AE6BE141D532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>44288.194543</v>
+        <v>44288.194542999998</v>
       </c>
       <c r="B2" s="1">
-        <v>12.302276</v>
+        <v>12.302276000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>902.478000</v>
+        <v>902.47799999999995</v>
       </c>
       <c r="D2" s="1">
-        <v>-180.779000</v>
+        <v>-180.779</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>44298.571878</v>
+        <v>44298.571878000002</v>
       </c>
       <c r="G2" s="1">
         <v>12.305159</v>
       </c>
       <c r="H2" s="1">
-        <v>917.737000</v>
+        <v>917.73699999999997</v>
       </c>
       <c r="I2" s="1">
-        <v>-155.943000</v>
+        <v>-155.94300000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>44309.045398</v>
+        <v>44309.045398000002</v>
       </c>
       <c r="L2" s="1">
         <v>12.308068</v>
       </c>
       <c r="M2" s="1">
-        <v>940.659000</v>
+        <v>940.65899999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-114.157000</v>
+        <v>-114.157</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>44319.565041</v>
+        <v>44319.565041000002</v>
       </c>
       <c r="Q2" s="1">
-        <v>12.310990</v>
+        <v>12.31099</v>
       </c>
       <c r="R2" s="1">
-        <v>948.086000</v>
+        <v>948.08600000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-100.093000</v>
+        <v>-100.093</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>44330.468071</v>
+        <v>44330.468071000003</v>
       </c>
       <c r="V2" s="1">
         <v>12.314019</v>
       </c>
       <c r="W2" s="1">
-        <v>955.671000</v>
+        <v>955.67100000000005</v>
       </c>
       <c r="X2" s="1">
-        <v>-86.886100</v>
+        <v>-86.886099999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>44340.890538</v>
       </c>
       <c r="AA2" s="1">
-        <v>12.316914</v>
+        <v>12.316914000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>963.860000</v>
+        <v>963.86</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.414000</v>
+        <v>-76.414000000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>44351.451324</v>
+        <v>44351.451324000001</v>
       </c>
       <c r="AF2" s="1">
         <v>12.319848</v>
       </c>
       <c r="AG2" s="1">
-        <v>969.098000</v>
+        <v>969.09799999999996</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.661000</v>
+        <v>-74.661000000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>44361.883677</v>
+        <v>44361.883676999998</v>
       </c>
       <c r="AK2" s="1">
-        <v>12.322745</v>
+        <v>12.322744999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>976.722000</v>
+        <v>976.72199999999998</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.693300</v>
+        <v>-79.693299999999994</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>44372.763919</v>
+        <v>44372.763918999997</v>
       </c>
       <c r="AP2" s="1">
         <v>12.325768</v>
       </c>
       <c r="AQ2" s="1">
-        <v>984.990000</v>
+        <v>984.99</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.443200</v>
+        <v>-91.443200000000004</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>44383.757248</v>
+        <v>44383.757248000002</v>
       </c>
       <c r="AU2" s="1">
         <v>12.328821</v>
       </c>
       <c r="AV2" s="1">
-        <v>994.950000</v>
+        <v>994.95</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.222000</v>
+        <v>-109.22199999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>44394.272931</v>
@@ -631,210 +1047,210 @@
         <v>12.331742</v>
       </c>
       <c r="BA2" s="1">
-        <v>1003.270000</v>
+        <v>1003.27</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.979000</v>
+        <v>-124.979</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>44405.231045</v>
       </c>
       <c r="BE2" s="1">
-        <v>12.334786</v>
+        <v>12.334785999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1041.980000</v>
+        <v>1041.98</v>
       </c>
       <c r="BG2" s="1">
-        <v>-197.333000</v>
+        <v>-197.333</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>44415.856374</v>
+        <v>44415.856374000003</v>
       </c>
       <c r="BJ2" s="1">
         <v>12.337738</v>
       </c>
       <c r="BK2" s="1">
-        <v>1108.650000</v>
+        <v>1108.6500000000001</v>
       </c>
       <c r="BL2" s="1">
-        <v>-314.941000</v>
+        <v>-314.94099999999997</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>44427.379400</v>
+        <v>44427.379399999998</v>
       </c>
       <c r="BO2" s="1">
-        <v>12.340939</v>
+        <v>12.340939000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1216.900000</v>
+        <v>1216.9000000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-500.685000</v>
+        <v>-500.685</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>44438.435225</v>
+        <v>44438.435225000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>12.344010</v>
+        <v>12.344010000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1338.760000</v>
+        <v>1338.76</v>
       </c>
       <c r="BV2" s="1">
-        <v>-705.290000</v>
+        <v>-705.29</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>44449.176091</v>
+        <v>44449.176091000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>12.346993</v>
+        <v>12.346992999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1475.530000</v>
+        <v>1475.53</v>
       </c>
       <c r="CA2" s="1">
-        <v>-922.996000</v>
+        <v>-922.99599999999998</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>44459.733932</v>
+        <v>44459.733932000003</v>
       </c>
       <c r="CD2" s="1">
         <v>12.349926</v>
       </c>
       <c r="CE2" s="1">
-        <v>1836.430000</v>
+        <v>1836.43</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1441.510000</v>
+        <v>-1441.51</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>44288.545216</v>
+        <v>44288.545215999999</v>
       </c>
       <c r="B3" s="1">
         <v>12.302374</v>
       </c>
       <c r="C3" s="1">
-        <v>902.463000</v>
+        <v>902.46299999999997</v>
       </c>
       <c r="D3" s="1">
-        <v>-180.929000</v>
+        <v>-180.929</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>44298.955744</v>
+        <v>44298.955743999999</v>
       </c>
       <c r="G3" s="1">
         <v>12.305265</v>
       </c>
       <c r="H3" s="1">
-        <v>917.817000</v>
+        <v>917.81700000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-155.262000</v>
+        <v>-155.262</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>44309.764598</v>
+        <v>44309.764598000002</v>
       </c>
       <c r="L3" s="1">
         <v>12.308268</v>
       </c>
       <c r="M3" s="1">
-        <v>940.642000</v>
+        <v>940.64200000000005</v>
       </c>
       <c r="N3" s="1">
-        <v>-114.125000</v>
+        <v>-114.125</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>44320.293669</v>
+        <v>44320.293668999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>12.311193</v>
+        <v>12.311192999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>948.052000</v>
+        <v>948.05200000000002</v>
       </c>
       <c r="S3" s="1">
-        <v>-100.123000</v>
+        <v>-100.123</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>44330.814283</v>
       </c>
       <c r="V3" s="1">
-        <v>12.314115</v>
+        <v>12.314114999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>955.568000</v>
+        <v>955.56799999999998</v>
       </c>
       <c r="X3" s="1">
-        <v>-87.025200</v>
+        <v>-87.025199999999998</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>44341.256553</v>
+        <v>44341.256552999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>12.317016</v>
+        <v>12.317016000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>963.862000</v>
+        <v>963.86199999999997</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.377800</v>
+        <v>-76.377799999999993</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>44351.817899</v>
+        <v>44351.817899000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>12.319949</v>
+        <v>12.319948999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>969.120000</v>
+        <v>969.12</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.657800</v>
+        <v>-74.657799999999995</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>44362.579565</v>
@@ -843,1253 +1259,1253 @@
         <v>12.322939</v>
       </c>
       <c r="AL3" s="1">
-        <v>976.690000</v>
+        <v>976.69</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.674100</v>
+        <v>-79.674099999999996</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>44373.209855</v>
+        <v>44373.209855000001</v>
       </c>
       <c r="AP3" s="1">
         <v>12.325892</v>
       </c>
       <c r="AQ3" s="1">
-        <v>984.998000</v>
+        <v>984.99800000000005</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.420300</v>
+        <v>-91.420299999999997</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>44383.866368</v>
+        <v>44383.866368000003</v>
       </c>
       <c r="AU3" s="1">
-        <v>12.328852</v>
+        <v>12.328851999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>994.950000</v>
+        <v>994.95</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.223000</v>
+        <v>-109.223</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>44394.631539</v>
+        <v>44394.631539000002</v>
       </c>
       <c r="AZ3" s="1">
         <v>12.331842</v>
       </c>
       <c r="BA3" s="1">
-        <v>1003.270000</v>
+        <v>1003.27</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.974000</v>
+        <v>-124.974</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>44405.590679</v>
+        <v>44405.590679000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>12.334886</v>
+        <v>12.334885999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1041.990000</v>
+        <v>1041.99</v>
       </c>
       <c r="BG3" s="1">
-        <v>-197.357000</v>
+        <v>-197.357</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>44416.255623</v>
+        <v>44416.255622999997</v>
       </c>
       <c r="BJ3" s="1">
         <v>12.337849</v>
       </c>
       <c r="BK3" s="1">
-        <v>1108.630000</v>
+        <v>1108.6300000000001</v>
       </c>
       <c r="BL3" s="1">
-        <v>-314.932000</v>
+        <v>-314.93200000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>44427.800007</v>
+        <v>44427.800006999998</v>
       </c>
       <c r="BO3" s="1">
         <v>12.341056</v>
       </c>
       <c r="BP3" s="1">
-        <v>1216.900000</v>
+        <v>1216.9000000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-500.728000</v>
+        <v>-500.72800000000001</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>44438.577080</v>
+        <v>44438.577080000003</v>
       </c>
       <c r="BT3" s="1">
         <v>12.344049</v>
       </c>
       <c r="BU3" s="1">
-        <v>1338.710000</v>
+        <v>1338.71</v>
       </c>
       <c r="BV3" s="1">
-        <v>-705.386000</v>
+        <v>-705.38599999999997</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>44449.346219</v>
+        <v>44449.346218999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>12.347041</v>
+        <v>12.347041000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1475.510000</v>
+        <v>1475.51</v>
       </c>
       <c r="CA3" s="1">
-        <v>-923.065000</v>
+        <v>-923.06500000000005</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>44460.326155</v>
+        <v>44460.326155000002</v>
       </c>
       <c r="CD3" s="1">
-        <v>12.350091</v>
+        <v>12.350091000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1834.480000</v>
+        <v>1834.48</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1442.320000</v>
+        <v>-1442.32</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>44289.237134</v>
+        <v>44289.237134000003</v>
       </c>
       <c r="B4" s="1">
-        <v>12.302566</v>
+        <v>12.302566000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>902.336000</v>
+        <v>902.33600000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-180.892000</v>
+        <v>-180.892</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>44299.644688</v>
       </c>
       <c r="G4" s="1">
-        <v>12.305457</v>
+        <v>12.305457000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>917.654000</v>
+        <v>917.654</v>
       </c>
       <c r="I4" s="1">
-        <v>-154.861000</v>
+        <v>-154.86099999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>44310.113252</v>
+        <v>44310.113252000003</v>
       </c>
       <c r="L4" s="1">
         <v>12.308365</v>
       </c>
       <c r="M4" s="1">
-        <v>940.525000</v>
+        <v>940.52499999999998</v>
       </c>
       <c r="N4" s="1">
-        <v>-114.081000</v>
+        <v>-114.081</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>44320.644308</v>
+        <v>44320.644308000003</v>
       </c>
       <c r="Q4" s="1">
-        <v>12.311290</v>
+        <v>12.31129</v>
       </c>
       <c r="R4" s="1">
-        <v>948.040000</v>
+        <v>948.04</v>
       </c>
       <c r="S4" s="1">
-        <v>-100.090000</v>
+        <v>-100.09</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>44331.156024</v>
+        <v>44331.156024000004</v>
       </c>
       <c r="V4" s="1">
-        <v>12.314210</v>
+        <v>12.314209999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>955.542000</v>
+        <v>955.54200000000003</v>
       </c>
       <c r="X4" s="1">
-        <v>-86.847700</v>
+        <v>-86.847700000000003</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>44341.930881</v>
       </c>
       <c r="AA4" s="1">
-        <v>12.317203</v>
+        <v>12.317202999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>963.901000</v>
+        <v>963.90099999999995</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.457200</v>
+        <v>-76.4572</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>44352.473610</v>
+        <v>44352.473610000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>12.320132</v>
+        <v>12.320131999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>969.095000</v>
+        <v>969.09500000000003</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.648000</v>
+        <v>-74.647999999999996</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>44362.969457</v>
+        <v>44362.969456999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>12.323047</v>
+        <v>12.323047000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>976.704000</v>
+        <v>976.70399999999995</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.679000</v>
+        <v>-79.679000000000002</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>44373.568473</v>
+        <v>44373.568472999999</v>
       </c>
       <c r="AP4" s="1">
         <v>12.325991</v>
       </c>
       <c r="AQ4" s="1">
-        <v>985.014000</v>
+        <v>985.01400000000001</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.430800</v>
+        <v>-91.430800000000005</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>44384.226962</v>
+        <v>44384.226962000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>12.328952</v>
+        <v>12.328951999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>994.957000</v>
+        <v>994.95699999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.210000</v>
+        <v>-109.21</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>44394.991138</v>
+        <v>44394.991137999998</v>
       </c>
       <c r="AZ4" s="1">
         <v>12.331942</v>
       </c>
       <c r="BA4" s="1">
-        <v>1003.290000</v>
+        <v>1003.29</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.999000</v>
+        <v>-124.999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>44406.012280</v>
+        <v>44406.012280000003</v>
       </c>
       <c r="BE4" s="1">
         <v>12.335003</v>
       </c>
       <c r="BF4" s="1">
-        <v>1041.980000</v>
+        <v>1041.98</v>
       </c>
       <c r="BG4" s="1">
-        <v>-197.342000</v>
+        <v>-197.34200000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>44416.669285</v>
+        <v>44416.669285000004</v>
       </c>
       <c r="BJ4" s="1">
-        <v>12.337964</v>
+        <v>12.337963999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1108.660000</v>
+        <v>1108.6600000000001</v>
       </c>
       <c r="BL4" s="1">
-        <v>-314.956000</v>
+        <v>-314.95600000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>44428.220613</v>
+        <v>44428.220612999998</v>
       </c>
       <c r="BO4" s="1">
         <v>12.341172</v>
       </c>
       <c r="BP4" s="1">
-        <v>1216.910000</v>
+        <v>1216.9100000000001</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-500.763000</v>
+        <v>-500.76299999999998</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>44439.015049</v>
+        <v>44439.015049000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>12.344171</v>
+        <v>12.344170999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1338.800000</v>
+        <v>1338.8</v>
       </c>
       <c r="BV4" s="1">
-        <v>-705.376000</v>
+        <v>-705.37599999999998</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>44449.768360</v>
+        <v>44449.768360000002</v>
       </c>
       <c r="BY4" s="1">
         <v>12.347158</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1475.550000</v>
+        <v>1475.55</v>
       </c>
       <c r="CA4" s="1">
-        <v>-923.011000</v>
+        <v>-923.01099999999997</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>44460.860378</v>
+        <v>44460.860377999998</v>
       </c>
       <c r="CD4" s="1">
         <v>12.350239</v>
       </c>
       <c r="CE4" s="1">
-        <v>1835.850000</v>
+        <v>1835.85</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1441.990000</v>
+        <v>-1441.99</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>44289.582349</v>
+        <v>44289.582348999997</v>
       </c>
       <c r="B5" s="1">
         <v>12.302662</v>
       </c>
       <c r="C5" s="1">
-        <v>902.351000</v>
+        <v>902.351</v>
       </c>
       <c r="D5" s="1">
-        <v>-180.988000</v>
+        <v>-180.988</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>44299.993377</v>
+        <v>44299.993376999999</v>
       </c>
       <c r="G5" s="1">
-        <v>12.305554</v>
+        <v>12.305554000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>918.274000</v>
+        <v>918.274</v>
       </c>
       <c r="I5" s="1">
-        <v>-155.635000</v>
+        <v>-155.63499999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>44310.457473</v>
+        <v>44310.457473000002</v>
       </c>
       <c r="L5" s="1">
-        <v>12.308460</v>
+        <v>12.30846</v>
       </c>
       <c r="M5" s="1">
-        <v>940.455000</v>
+        <v>940.45500000000004</v>
       </c>
       <c r="N5" s="1">
-        <v>-114.019000</v>
+        <v>-114.01900000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>44320.990552</v>
+        <v>44320.990552000003</v>
       </c>
       <c r="Q5" s="1">
-        <v>12.311386</v>
+        <v>12.311386000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>948.041000</v>
+        <v>948.04100000000005</v>
       </c>
       <c r="S5" s="1">
-        <v>-100.107000</v>
+        <v>-100.107</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>44331.820199</v>
+        <v>44331.820199000002</v>
       </c>
       <c r="V5" s="1">
         <v>12.314394</v>
       </c>
       <c r="W5" s="1">
-        <v>955.631000</v>
+        <v>955.63099999999997</v>
       </c>
       <c r="X5" s="1">
-        <v>-86.823200</v>
+        <v>-86.8232</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>44342.300631</v>
+        <v>44342.300630999998</v>
       </c>
       <c r="AA5" s="1">
         <v>12.317306</v>
       </c>
       <c r="AB5" s="1">
-        <v>963.782000</v>
+        <v>963.78200000000004</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.412300</v>
+        <v>-76.412300000000002</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>44352.846628</v>
+        <v>44352.846627999999</v>
       </c>
       <c r="AF5" s="1">
         <v>12.320235</v>
       </c>
       <c r="AG5" s="1">
-        <v>969.098000</v>
+        <v>969.09799999999996</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.625100</v>
+        <v>-74.625100000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>44363.316619</v>
+        <v>44363.316618999997</v>
       </c>
       <c r="AK5" s="1">
-        <v>12.323144</v>
+        <v>12.323143999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>976.699000</v>
+        <v>976.69899999999996</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.666800</v>
+        <v>-79.666799999999995</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>44373.929517</v>
+        <v>44373.929516999997</v>
       </c>
       <c r="AP5" s="1">
-        <v>12.326092</v>
+        <v>12.326091999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>985.012000</v>
+        <v>985.01199999999994</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.454000</v>
+        <v>-91.453999999999994</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>44384.591519</v>
+        <v>44384.591519000001</v>
       </c>
       <c r="AU5" s="1">
         <v>12.329053</v>
       </c>
       <c r="AV5" s="1">
-        <v>994.946000</v>
+        <v>994.94600000000003</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.220000</v>
+        <v>-109.22</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>44395.414226</v>
+        <v>44395.414226000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>12.332060</v>
+        <v>12.33206</v>
       </c>
       <c r="BA5" s="1">
-        <v>1003.260000</v>
+        <v>1003.26</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.986000</v>
+        <v>-124.986</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>44406.315299</v>
+        <v>44406.315299000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>12.335088</v>
+        <v>12.335088000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1042.000000</v>
+        <v>1042</v>
       </c>
       <c r="BG5" s="1">
-        <v>-197.362000</v>
+        <v>-197.36199999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>44417.005078</v>
+        <v>44417.005078000002</v>
       </c>
       <c r="BJ5" s="1">
-        <v>12.338057</v>
+        <v>12.338056999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1108.650000</v>
+        <v>1108.6500000000001</v>
       </c>
       <c r="BL5" s="1">
-        <v>-314.958000</v>
+        <v>-314.95800000000003</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>44428.616950</v>
+        <v>44428.616950000003</v>
       </c>
       <c r="BO5" s="1">
         <v>12.341282</v>
       </c>
       <c r="BP5" s="1">
-        <v>1216.870000</v>
+        <v>1216.8699999999999</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-500.706000</v>
+        <v>-500.70600000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>44439.443623</v>
+        <v>44439.443622999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>12.344290</v>
+        <v>12.344290000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1338.790000</v>
+        <v>1338.79</v>
       </c>
       <c r="BV5" s="1">
-        <v>-705.349000</v>
+        <v>-705.34900000000005</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>44450.191897</v>
+        <v>44450.191896999997</v>
       </c>
       <c r="BY5" s="1">
-        <v>12.347276</v>
+        <v>12.347276000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1475.560000</v>
+        <v>1475.56</v>
       </c>
       <c r="CA5" s="1">
-        <v>-923.015000</v>
+        <v>-923.01499999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>44461.377178</v>
+        <v>44461.377178000002</v>
       </c>
       <c r="CD5" s="1">
-        <v>12.350383</v>
+        <v>12.350383000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1835.590000</v>
+        <v>1835.59</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1440.860000</v>
+        <v>-1440.86</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>44289.924591</v>
+        <v>44289.924591000003</v>
       </c>
       <c r="B6" s="1">
         <v>12.302757</v>
       </c>
       <c r="C6" s="1">
-        <v>902.585000</v>
+        <v>902.58500000000004</v>
       </c>
       <c r="D6" s="1">
-        <v>-180.926000</v>
+        <v>-180.92599999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>44300.333631</v>
+        <v>44300.333631000001</v>
       </c>
       <c r="G6" s="1">
         <v>12.305648</v>
       </c>
       <c r="H6" s="1">
-        <v>917.620000</v>
+        <v>917.62</v>
       </c>
       <c r="I6" s="1">
-        <v>-155.291000</v>
+        <v>-155.291</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>44311.116904</v>
+        <v>44311.116904000002</v>
       </c>
       <c r="L6" s="1">
-        <v>12.308644</v>
+        <v>12.308643999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>940.447000</v>
+        <v>940.447</v>
       </c>
       <c r="N6" s="1">
-        <v>-114.143000</v>
+        <v>-114.143</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>44321.692354</v>
+        <v>44321.692353999999</v>
       </c>
       <c r="Q6" s="1">
         <v>12.311581</v>
       </c>
       <c r="R6" s="1">
-        <v>948.068000</v>
+        <v>948.06799999999998</v>
       </c>
       <c r="S6" s="1">
-        <v>-100.042000</v>
+        <v>-100.042</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>44332.187240</v>
+        <v>44332.187239999999</v>
       </c>
       <c r="V6" s="1">
         <v>12.314496</v>
       </c>
       <c r="W6" s="1">
-        <v>955.634000</v>
+        <v>955.63400000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-86.692100</v>
+        <v>-86.692099999999996</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>44342.649352</v>
       </c>
       <c r="AA6" s="1">
-        <v>12.317403</v>
+        <v>12.317403000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>963.857000</v>
+        <v>963.85699999999997</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.420200</v>
+        <v>-76.420199999999994</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>44353.191327</v>
       </c>
       <c r="AF6" s="1">
-        <v>12.320331</v>
+        <v>12.320330999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>969.054000</v>
+        <v>969.05399999999997</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.654600</v>
+        <v>-74.654600000000002</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>44363.666822</v>
+        <v>44363.666821999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>12.323241</v>
+        <v>12.323240999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>976.690000</v>
+        <v>976.69</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.685100</v>
+        <v>-79.685100000000006</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>44374.352642</v>
+        <v>44374.352641999998</v>
       </c>
       <c r="AP6" s="1">
         <v>12.326209</v>
       </c>
       <c r="AQ6" s="1">
-        <v>984.992000</v>
+        <v>984.99199999999996</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.432300</v>
+        <v>-91.432299999999998</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>44385.015104</v>
+        <v>44385.015103999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>12.329171</v>
+        <v>12.329171000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>994.958000</v>
+        <v>994.95799999999997</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.219000</v>
+        <v>-109.21899999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>44395.710337</v>
+        <v>44395.710336999997</v>
       </c>
       <c r="AZ6" s="1">
-        <v>12.332142</v>
+        <v>12.332141999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1003.250000</v>
+        <v>1003.25</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.984000</v>
+        <v>-124.98399999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>44406.675890</v>
+        <v>44406.675889999999</v>
       </c>
       <c r="BE6" s="1">
         <v>12.335188</v>
       </c>
       <c r="BF6" s="1">
-        <v>1041.970000</v>
+        <v>1041.97</v>
       </c>
       <c r="BG6" s="1">
-        <v>-197.370000</v>
+        <v>-197.37</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>44417.380549</v>
+        <v>44417.380549000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>12.338161</v>
+        <v>12.338160999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1108.620000</v>
+        <v>1108.6199999999999</v>
       </c>
       <c r="BL6" s="1">
-        <v>-314.992000</v>
+        <v>-314.99200000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>44429.039783</v>
       </c>
       <c r="BO6" s="1">
-        <v>12.341400</v>
+        <v>12.3414</v>
       </c>
       <c r="BP6" s="1">
-        <v>1216.870000</v>
+        <v>1216.8699999999999</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-500.733000</v>
+        <v>-500.733</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>44439.872140</v>
+        <v>44439.872139999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>12.344409</v>
+        <v>12.344409000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1338.830000</v>
+        <v>1338.83</v>
       </c>
       <c r="BV6" s="1">
-        <v>-705.424000</v>
+        <v>-705.42399999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>44450.638298</v>
+        <v>44450.638297999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>12.347400</v>
+        <v>12.3474</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1475.610000</v>
+        <v>1475.61</v>
       </c>
       <c r="CA6" s="1">
-        <v>-923.007000</v>
+        <v>-923.00699999999995</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>44461.892521</v>
+        <v>44461.892521000002</v>
       </c>
       <c r="CD6" s="1">
         <v>12.350526</v>
       </c>
       <c r="CE6" s="1">
-        <v>1834.560000</v>
+        <v>1834.56</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1441.320000</v>
+        <v>-1441.32</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>44290.583276</v>
+        <v>44290.583275999998</v>
       </c>
       <c r="B7" s="1">
-        <v>12.302940</v>
+        <v>12.30294</v>
       </c>
       <c r="C7" s="1">
-        <v>902.401000</v>
+        <v>902.40099999999995</v>
       </c>
       <c r="D7" s="1">
-        <v>-180.807000</v>
+        <v>-180.80699999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>44300.996286</v>
+        <v>44300.996286000001</v>
       </c>
       <c r="G7" s="1">
-        <v>12.305832</v>
+        <v>12.305832000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>918.157000</v>
+        <v>918.15700000000004</v>
       </c>
       <c r="I7" s="1">
-        <v>-155.013000</v>
+        <v>-155.01300000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>44311.490676</v>
+        <v>44311.490676000001</v>
       </c>
       <c r="L7" s="1">
         <v>12.308747</v>
       </c>
       <c r="M7" s="1">
-        <v>940.548000</v>
+        <v>940.548</v>
       </c>
       <c r="N7" s="1">
-        <v>-114.138000</v>
+        <v>-114.13800000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>44322.037572</v>
+        <v>44322.037572000001</v>
       </c>
       <c r="Q7" s="1">
         <v>12.311677</v>
       </c>
       <c r="R7" s="1">
-        <v>948.060000</v>
+        <v>948.06</v>
       </c>
       <c r="S7" s="1">
-        <v>-100.051000</v>
+        <v>-100.051</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>44332.530932</v>
+        <v>44332.530932000001</v>
       </c>
       <c r="V7" s="1">
-        <v>12.314592</v>
+        <v>12.314591999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>955.524000</v>
+        <v>955.524</v>
       </c>
       <c r="X7" s="1">
-        <v>-86.809000</v>
+        <v>-86.808999999999997</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>44343.001482</v>
       </c>
       <c r="AA7" s="1">
-        <v>12.317500</v>
+        <v>12.317500000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>963.758000</v>
+        <v>963.75800000000004</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.347900</v>
+        <v>-76.347899999999996</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>44353.536009</v>
+        <v>44353.536009000003</v>
       </c>
       <c r="AF7" s="1">
         <v>12.320427</v>
       </c>
       <c r="AG7" s="1">
-        <v>969.073000</v>
+        <v>969.07299999999998</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.645800</v>
+        <v>-74.645799999999994</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>44364.081946</v>
+        <v>44364.081945999998</v>
       </c>
       <c r="AK7" s="1">
         <v>12.323356</v>
       </c>
       <c r="AL7" s="1">
-        <v>976.715000</v>
+        <v>976.71500000000003</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.683300</v>
+        <v>-79.683300000000003</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>44374.649212</v>
+        <v>44374.649211999997</v>
       </c>
       <c r="AP7" s="1">
-        <v>12.326291</v>
+        <v>12.326290999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>984.992000</v>
+        <v>984.99199999999996</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.438900</v>
+        <v>-91.438900000000004</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>44385.318159</v>
+        <v>44385.318159000002</v>
       </c>
       <c r="AU7" s="1">
         <v>12.329255</v>
       </c>
       <c r="AV7" s="1">
-        <v>994.939000</v>
+        <v>994.93899999999996</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.223000</v>
+        <v>-109.223</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>44396.067986</v>
+        <v>44396.067986000002</v>
       </c>
       <c r="AZ7" s="1">
         <v>12.332241</v>
       </c>
       <c r="BA7" s="1">
-        <v>1003.280000</v>
+        <v>1003.28</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.978000</v>
+        <v>-124.97799999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>44407.035491</v>
+        <v>44407.035491000002</v>
       </c>
       <c r="BE7" s="1">
         <v>12.335288</v>
       </c>
       <c r="BF7" s="1">
-        <v>1041.990000</v>
+        <v>1041.99</v>
       </c>
       <c r="BG7" s="1">
-        <v>-197.369000</v>
+        <v>-197.369</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>44417.777348</v>
+        <v>44417.777348000003</v>
       </c>
       <c r="BJ7" s="1">
-        <v>12.338271</v>
+        <v>12.338271000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1108.620000</v>
+        <v>1108.6199999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-314.959000</v>
+        <v>-314.959</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>44429.856915</v>
+        <v>44429.856914999997</v>
       </c>
       <c r="BO7" s="1">
-        <v>12.341627</v>
+        <v>12.341627000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1216.870000</v>
+        <v>1216.8699999999999</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-500.787000</v>
+        <v>-500.78699999999998</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>44440.283350</v>
+        <v>44440.283349999998</v>
       </c>
       <c r="BT7" s="1">
-        <v>12.344523</v>
+        <v>12.344523000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1338.860000</v>
+        <v>1338.86</v>
       </c>
       <c r="BV7" s="1">
-        <v>-705.445000</v>
+        <v>-705.44500000000005</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>44451.070312</v>
+        <v>44451.070312000003</v>
       </c>
       <c r="BY7" s="1">
-        <v>12.347520</v>
+        <v>12.347519999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1475.540000</v>
+        <v>1475.54</v>
       </c>
       <c r="CA7" s="1">
-        <v>-923.058000</v>
+        <v>-923.05799999999999</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>44462.411337</v>
+        <v>44462.411336999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>12.350670</v>
+        <v>12.350669999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1834.590000</v>
+        <v>1834.59</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1441.350000</v>
+        <v>-1441.35</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>44290.947339</v>
+        <v>44290.947338999998</v>
       </c>
       <c r="B8" s="1">
         <v>12.303041</v>
       </c>
       <c r="C8" s="1">
-        <v>902.497000</v>
+        <v>902.49699999999996</v>
       </c>
       <c r="D8" s="1">
-        <v>-180.784000</v>
+        <v>-180.78399999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>44301.374733</v>
+        <v>44301.374732999997</v>
       </c>
       <c r="G8" s="1">
         <v>12.305937</v>
       </c>
       <c r="H8" s="1">
-        <v>917.780000</v>
+        <v>917.78</v>
       </c>
       <c r="I8" s="1">
-        <v>-154.806000</v>
+        <v>-154.80600000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>44311.841807</v>
+        <v>44311.841806999997</v>
       </c>
       <c r="L8" s="1">
         <v>12.308845</v>
       </c>
       <c r="M8" s="1">
-        <v>940.573000</v>
+        <v>940.57299999999998</v>
       </c>
       <c r="N8" s="1">
-        <v>-114.299000</v>
+        <v>-114.29900000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>44322.389748</v>
+        <v>44322.389748000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>12.311775</v>
+        <v>12.311775000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>948.036000</v>
+        <v>948.03599999999994</v>
       </c>
       <c r="S8" s="1">
-        <v>-100.102000</v>
+        <v>-100.102</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>44332.872678</v>
       </c>
       <c r="V8" s="1">
-        <v>12.314687</v>
+        <v>12.314686999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>955.643000</v>
+        <v>955.64300000000003</v>
       </c>
       <c r="X8" s="1">
-        <v>-86.858900</v>
+        <v>-86.858900000000006</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>44343.438982</v>
@@ -2098,163 +2514,163 @@
         <v>12.317622</v>
       </c>
       <c r="AB8" s="1">
-        <v>963.856000</v>
+        <v>963.85599999999999</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.394800</v>
+        <v>-76.394800000000004</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>44353.970008</v>
+        <v>44353.970007999997</v>
       </c>
       <c r="AF8" s="1">
-        <v>12.320547</v>
+        <v>12.320546999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>969.081000</v>
+        <v>969.08100000000002</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.693500</v>
+        <v>-74.6935</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>44364.364171</v>
+        <v>44364.364171000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>12.323434</v>
+        <v>12.323434000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>976.704000</v>
+        <v>976.70399999999995</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.682100</v>
+        <v>-79.682100000000005</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>44375.011839</v>
+        <v>44375.011838999999</v>
       </c>
       <c r="AP8" s="1">
         <v>12.326392</v>
       </c>
       <c r="AQ8" s="1">
-        <v>985.015000</v>
+        <v>985.01499999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.442700</v>
+        <v>-91.442700000000002</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>44385.683214</v>
+        <v>44385.683213999997</v>
       </c>
       <c r="AU8" s="1">
-        <v>12.329356</v>
+        <v>12.329356000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>994.954000</v>
+        <v>994.95399999999995</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.220000</v>
+        <v>-109.22</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>44396.423088</v>
+        <v>44396.423088000003</v>
       </c>
       <c r="AZ8" s="1">
-        <v>12.332340</v>
+        <v>12.33234</v>
       </c>
       <c r="BA8" s="1">
-        <v>1003.280000</v>
+        <v>1003.28</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.984000</v>
+        <v>-124.98399999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>44407.758161</v>
+        <v>44407.758160999998</v>
       </c>
       <c r="BE8" s="1">
         <v>12.335488</v>
       </c>
       <c r="BF8" s="1">
-        <v>1041.980000</v>
+        <v>1041.98</v>
       </c>
       <c r="BG8" s="1">
-        <v>-197.356000</v>
+        <v>-197.35599999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>44418.528291</v>
+        <v>44418.528291000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>12.338480</v>
+        <v>12.338480000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1108.650000</v>
+        <v>1108.6500000000001</v>
       </c>
       <c r="BL8" s="1">
-        <v>-314.990000</v>
+        <v>-314.99</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>44430.274052</v>
+        <v>44430.274052000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>12.341743</v>
+        <v>12.341742999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1216.840000</v>
+        <v>1216.8399999999999</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-500.727000</v>
+        <v>-500.72699999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>44440.710901</v>
+        <v>44440.710900999999</v>
       </c>
       <c r="BT8" s="1">
         <v>12.344642</v>
       </c>
       <c r="BU8" s="1">
-        <v>1338.850000</v>
+        <v>1338.85</v>
       </c>
       <c r="BV8" s="1">
-        <v>-705.424000</v>
+        <v>-705.42399999999998</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>44451.491447</v>
       </c>
       <c r="BY8" s="1">
-        <v>12.347637</v>
+        <v>12.347637000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1475.450000</v>
+        <v>1475.45</v>
       </c>
       <c r="CA8" s="1">
-        <v>-923.103000</v>
+        <v>-923.10299999999995</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>44463.285784</v>
@@ -2263,240 +2679,240 @@
         <v>12.350913</v>
       </c>
       <c r="CE8" s="1">
-        <v>1835.080000</v>
+        <v>1835.08</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1440.730000</v>
+        <v>-1440.73</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>44291.271723</v>
+        <v>44291.271722999998</v>
       </c>
       <c r="B9" s="1">
         <v>12.303131</v>
       </c>
       <c r="C9" s="1">
-        <v>902.289000</v>
+        <v>902.28899999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-180.829000</v>
+        <v>-180.82900000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>44301.719950</v>
+        <v>44301.719949999999</v>
       </c>
       <c r="G9" s="1">
-        <v>12.306033</v>
+        <v>12.306032999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>917.594000</v>
+        <v>917.59400000000005</v>
       </c>
       <c r="I9" s="1">
-        <v>-155.275000</v>
+        <v>-155.27500000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>44312.189009</v>
+        <v>44312.189009000002</v>
       </c>
       <c r="L9" s="1">
-        <v>12.308941</v>
+        <v>12.308941000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>940.550000</v>
+        <v>940.55</v>
       </c>
       <c r="N9" s="1">
-        <v>-114.201000</v>
+        <v>-114.20099999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>44322.803394</v>
+        <v>44322.803394000002</v>
       </c>
       <c r="Q9" s="1">
-        <v>12.311890</v>
+        <v>12.31189</v>
       </c>
       <c r="R9" s="1">
-        <v>948.065000</v>
+        <v>948.06500000000005</v>
       </c>
       <c r="S9" s="1">
-        <v>-100.064000</v>
+        <v>-100.06399999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>44333.293284</v>
+        <v>44333.293283999999</v>
       </c>
       <c r="V9" s="1">
-        <v>12.314804</v>
+        <v>12.314804000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>955.581000</v>
+        <v>955.58100000000002</v>
       </c>
       <c r="X9" s="1">
-        <v>-86.877900</v>
+        <v>-86.877899999999997</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>44343.702326</v>
+        <v>44343.702325999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>12.317695</v>
+        <v>12.317695000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>963.763000</v>
+        <v>963.76300000000003</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.455900</v>
+        <v>-76.4559</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>44354.237351</v>
+        <v>44354.237351000003</v>
       </c>
       <c r="AF9" s="1">
-        <v>12.320621</v>
+        <v>12.320620999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>969.064000</v>
+        <v>969.06399999999996</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.640200</v>
+        <v>-74.640199999999993</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>44364.710379</v>
+        <v>44364.710378999996</v>
       </c>
       <c r="AK9" s="1">
-        <v>12.323531</v>
+        <v>12.323530999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>976.688000</v>
+        <v>976.68799999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.675000</v>
+        <v>-79.674999999999997</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>44375.373868</v>
+        <v>44375.373868000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>12.326493</v>
+        <v>12.326492999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>985.012000</v>
+        <v>985.01199999999994</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.443900</v>
+        <v>-91.443899999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>44386.050750</v>
+        <v>44386.050750000002</v>
       </c>
       <c r="AU9" s="1">
         <v>12.329459</v>
       </c>
       <c r="AV9" s="1">
-        <v>994.948000</v>
+        <v>994.94799999999998</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.224000</v>
+        <v>-109.224</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>44397.149232</v>
+        <v>44397.149232000003</v>
       </c>
       <c r="AZ9" s="1">
-        <v>12.332541</v>
+        <v>12.332541000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1003.260000</v>
+        <v>1003.26</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.967000</v>
+        <v>-124.967</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>44408.146064</v>
       </c>
       <c r="BE9" s="1">
-        <v>12.335596</v>
+        <v>12.335596000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1041.970000</v>
+        <v>1041.97</v>
       </c>
       <c r="BG9" s="1">
-        <v>-197.364000</v>
+        <v>-197.364</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>44418.929554</v>
+        <v>44418.929554000002</v>
       </c>
       <c r="BJ9" s="1">
         <v>12.338592</v>
       </c>
       <c r="BK9" s="1">
-        <v>1108.640000</v>
+        <v>1108.6400000000001</v>
       </c>
       <c r="BL9" s="1">
-        <v>-314.961000</v>
+        <v>-314.96100000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>44430.670354</v>
+        <v>44430.670354000002</v>
       </c>
       <c r="BO9" s="1">
         <v>12.341853</v>
       </c>
       <c r="BP9" s="1">
-        <v>1216.840000</v>
+        <v>1216.8399999999999</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-500.751000</v>
+        <v>-500.75099999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>44441.440485</v>
+        <v>44441.440484999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>12.344845</v>
+        <v>12.344844999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1338.890000</v>
+        <v>1338.89</v>
       </c>
       <c r="BV9" s="1">
-        <v>-705.352000</v>
+        <v>-705.35199999999998</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>44452.232934</v>
@@ -2505,135 +2921,135 @@
         <v>12.347842</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1475.600000</v>
+        <v>1475.6</v>
       </c>
       <c r="CA9" s="1">
-        <v>-923.005000</v>
+        <v>-923.005</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>44463.492616</v>
+        <v>44463.492616000003</v>
       </c>
       <c r="CD9" s="1">
-        <v>12.350970</v>
+        <v>12.35097</v>
       </c>
       <c r="CE9" s="1">
-        <v>1834.270000</v>
+        <v>1834.27</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1441.840000</v>
+        <v>-1441.84</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>44291.632350</v>
+        <v>44291.63235</v>
       </c>
       <c r="B10" s="1">
         <v>12.303231</v>
       </c>
       <c r="C10" s="1">
-        <v>902.538000</v>
+        <v>902.53800000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-180.818000</v>
+        <v>-180.81800000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>44302.065660</v>
+        <v>44302.06566</v>
       </c>
       <c r="G10" s="1">
         <v>12.306129</v>
       </c>
       <c r="H10" s="1">
-        <v>918.052000</v>
+        <v>918.05200000000002</v>
       </c>
       <c r="I10" s="1">
-        <v>-155.700000</v>
+        <v>-155.69999999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>44312.616064</v>
+        <v>44312.616064000002</v>
       </c>
       <c r="L10" s="1">
-        <v>12.309060</v>
+        <v>12.309060000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>940.658000</v>
+        <v>940.65800000000002</v>
       </c>
       <c r="N10" s="1">
-        <v>-114.152000</v>
+        <v>-114.152</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>44323.099299</v>
+        <v>44323.099299000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>12.311972</v>
+        <v>12.311972000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>948.034000</v>
+        <v>948.03399999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-100.097000</v>
+        <v>-100.09699999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>44333.564101</v>
+        <v>44333.564101000004</v>
       </c>
       <c r="V10" s="1">
-        <v>12.314879</v>
+        <v>12.314878999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>955.642000</v>
+        <v>955.64200000000005</v>
       </c>
       <c r="X10" s="1">
-        <v>-86.806200</v>
+        <v>-86.806200000000004</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>44344.052042</v>
+        <v>44344.052042000003</v>
       </c>
       <c r="AA10" s="1">
-        <v>12.317792</v>
+        <v>12.317792000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>963.831000</v>
+        <v>963.83100000000002</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.447700</v>
+        <v>-76.447699999999998</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>44354.580087</v>
+        <v>44354.580087000002</v>
       </c>
       <c r="AF10" s="1">
         <v>12.320717</v>
       </c>
       <c r="AG10" s="1">
-        <v>969.076000</v>
+        <v>969.07600000000002</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.669300</v>
+        <v>-74.669300000000007</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>44365.064027</v>
@@ -2642,225 +3058,225 @@
         <v>12.323629</v>
       </c>
       <c r="AL10" s="1">
-        <v>976.682000</v>
+        <v>976.68200000000002</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.683100</v>
+        <v>-79.683099999999996</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>44376.091610</v>
+        <v>44376.091610000003</v>
       </c>
       <c r="AP10" s="1">
         <v>12.326692</v>
       </c>
       <c r="AQ10" s="1">
-        <v>985.002000</v>
+        <v>985.00199999999995</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.412100</v>
+        <v>-91.412099999999995</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>44386.777421</v>
+        <v>44386.777420999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>12.329660</v>
+        <v>12.329660000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>994.951000</v>
+        <v>994.95100000000002</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.221000</v>
+        <v>-109.221</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>44397.523743</v>
+        <v>44397.523742999998</v>
       </c>
       <c r="AZ10" s="1">
-        <v>12.332645</v>
+        <v>12.332644999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1003.270000</v>
+        <v>1003.27</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.967000</v>
+        <v>-124.967</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>44408.504144</v>
+        <v>44408.504143999999</v>
       </c>
       <c r="BE10" s="1">
         <v>12.335696</v>
       </c>
       <c r="BF10" s="1">
-        <v>1041.990000</v>
+        <v>1041.99</v>
       </c>
       <c r="BG10" s="1">
-        <v>-197.359000</v>
+        <v>-197.35900000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>44419.297090</v>
+        <v>44419.29709</v>
       </c>
       <c r="BJ10" s="1">
         <v>12.338694</v>
       </c>
       <c r="BK10" s="1">
-        <v>1108.640000</v>
+        <v>1108.6400000000001</v>
       </c>
       <c r="BL10" s="1">
-        <v>-314.977000</v>
+        <v>-314.97699999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>44431.396995</v>
+        <v>44431.396995000003</v>
       </c>
       <c r="BO10" s="1">
         <v>12.342055</v>
       </c>
       <c r="BP10" s="1">
-        <v>1216.890000</v>
+        <v>1216.8900000000001</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-500.779000</v>
+        <v>-500.779</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>44441.555276</v>
+        <v>44441.555275999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>12.344876</v>
+        <v>12.344875999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1338.900000</v>
+        <v>1338.9</v>
       </c>
       <c r="BV10" s="1">
-        <v>-705.465000</v>
+        <v>-705.46500000000003</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>44452.343080</v>
+        <v>44452.343079999999</v>
       </c>
       <c r="BY10" s="1">
         <v>12.347873</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1475.690000</v>
+        <v>1475.69</v>
       </c>
       <c r="CA10" s="1">
-        <v>-923.152000</v>
+        <v>-923.15200000000004</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>44464.006470</v>
+        <v>44464.00647</v>
       </c>
       <c r="CD10" s="1">
         <v>12.351113</v>
       </c>
       <c r="CE10" s="1">
-        <v>1834.510000</v>
+        <v>1834.51</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1441.240000</v>
+        <v>-1441.24</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>44292.051950</v>
+        <v>44292.051950000001</v>
       </c>
       <c r="B11" s="1">
         <v>12.303348</v>
       </c>
       <c r="C11" s="1">
-        <v>902.485000</v>
+        <v>902.48500000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-180.800000</v>
+        <v>-180.8</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>44302.482300</v>
+        <v>44302.482300000003</v>
       </c>
       <c r="G11" s="1">
-        <v>12.306245</v>
+        <v>12.306245000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>918.156000</v>
+        <v>918.15599999999995</v>
       </c>
       <c r="I11" s="1">
-        <v>-155.453000</v>
+        <v>-155.453</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>44312.899278</v>
+        <v>44312.899277999997</v>
       </c>
       <c r="L11" s="1">
         <v>12.309139</v>
       </c>
       <c r="M11" s="1">
-        <v>940.717000</v>
+        <v>940.71699999999998</v>
       </c>
       <c r="N11" s="1">
-        <v>-114.281000</v>
+        <v>-114.28100000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>44323.449185</v>
+        <v>44323.449184999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>12.312069</v>
+        <v>12.312068999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>948.003000</v>
+        <v>948.00300000000004</v>
       </c>
       <c r="S11" s="1">
-        <v>-100.067000</v>
+        <v>-100.06699999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>44333.907332</v>
+        <v>44333.907332000002</v>
       </c>
       <c r="V11" s="1">
-        <v>12.314974</v>
+        <v>12.314973999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>955.555000</v>
+        <v>955.55499999999995</v>
       </c>
       <c r="X11" s="1">
-        <v>-86.827300</v>
+        <v>-86.827299999999994</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>44344.398213</v>
@@ -2869,181 +3285,181 @@
         <v>12.317888</v>
       </c>
       <c r="AB11" s="1">
-        <v>963.851000</v>
+        <v>963.851</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.421700</v>
+        <v>-76.421700000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>44354.921368</v>
+        <v>44354.921368000003</v>
       </c>
       <c r="AF11" s="1">
-        <v>12.320811</v>
+        <v>12.320811000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>969.082000</v>
+        <v>969.08199999999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.761300</v>
+        <v>-74.761300000000006</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>44365.757961</v>
+        <v>44365.757961000003</v>
       </c>
       <c r="AK11" s="1">
         <v>12.323822</v>
       </c>
       <c r="AL11" s="1">
-        <v>976.723000</v>
+        <v>976.72299999999996</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.680600</v>
+        <v>-79.680599999999998</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>44376.452170</v>
+        <v>44376.452169999997</v>
       </c>
       <c r="AP11" s="1">
-        <v>12.326792</v>
+        <v>12.326791999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>985.018000</v>
+        <v>985.01800000000003</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.439900</v>
+        <v>-91.439899999999994</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>44387.164269</v>
+        <v>44387.164269000001</v>
       </c>
       <c r="AU11" s="1">
         <v>12.329768</v>
       </c>
       <c r="AV11" s="1">
-        <v>994.952000</v>
+        <v>994.952</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.196000</v>
+        <v>-109.196</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>44397.904142</v>
+        <v>44397.904141999999</v>
       </c>
       <c r="AZ11" s="1">
         <v>12.332751</v>
       </c>
       <c r="BA11" s="1">
-        <v>1003.270000</v>
+        <v>1003.27</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.973000</v>
+        <v>-124.973</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>44409.179695</v>
+        <v>44409.179694999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>12.335883</v>
+        <v>12.335883000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1041.980000</v>
+        <v>1041.98</v>
       </c>
       <c r="BG11" s="1">
-        <v>-197.347000</v>
+        <v>-197.34700000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>44420.006375</v>
+        <v>44420.006374999997</v>
       </c>
       <c r="BJ11" s="1">
         <v>12.338891</v>
       </c>
       <c r="BK11" s="1">
-        <v>1108.630000</v>
+        <v>1108.6300000000001</v>
       </c>
       <c r="BL11" s="1">
-        <v>-314.962000</v>
+        <v>-314.96199999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>44431.509089</v>
+        <v>44431.509088999999</v>
       </c>
       <c r="BO11" s="1">
         <v>12.342086</v>
       </c>
       <c r="BP11" s="1">
-        <v>1216.890000</v>
+        <v>1216.8900000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-500.711000</v>
+        <v>-500.71100000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>44441.992035</v>
+        <v>44441.992035000003</v>
       </c>
       <c r="BT11" s="1">
         <v>12.344998</v>
       </c>
       <c r="BU11" s="1">
-        <v>1338.920000</v>
+        <v>1338.92</v>
       </c>
       <c r="BV11" s="1">
-        <v>-705.342000</v>
+        <v>-705.34199999999998</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>44452.787752</v>
+        <v>44452.787751999997</v>
       </c>
       <c r="BY11" s="1">
-        <v>12.347997</v>
+        <v>12.347996999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1475.510000</v>
+        <v>1475.51</v>
       </c>
       <c r="CA11" s="1">
-        <v>-923.008000</v>
+        <v>-923.00800000000004</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>44464.563015</v>
       </c>
       <c r="CD11" s="1">
-        <v>12.351268</v>
+        <v>12.351267999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1835.290000</v>
+        <v>1835.29</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1440.660000</v>
+        <v>-1440.66</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>44292.333197</v>
       </c>
@@ -3051,148 +3467,148 @@
         <v>12.303426</v>
       </c>
       <c r="C12" s="1">
-        <v>902.403000</v>
+        <v>902.40300000000002</v>
       </c>
       <c r="D12" s="1">
-        <v>-180.613000</v>
+        <v>-180.613</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>44302.757580</v>
+        <v>44302.757579999998</v>
       </c>
       <c r="G12" s="1">
         <v>12.306322</v>
       </c>
       <c r="H12" s="1">
-        <v>917.961000</v>
+        <v>917.96100000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-155.099000</v>
+        <v>-155.09899999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>44313.243006</v>
+        <v>44313.243005999997</v>
       </c>
       <c r="L12" s="1">
         <v>12.309234</v>
       </c>
       <c r="M12" s="1">
-        <v>940.630000</v>
+        <v>940.63</v>
       </c>
       <c r="N12" s="1">
-        <v>-114.090000</v>
+        <v>-114.09</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>44323.799029</v>
+        <v>44323.799029000002</v>
       </c>
       <c r="Q12" s="1">
-        <v>12.312166</v>
+        <v>12.312165999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>948.059000</v>
+        <v>948.05899999999997</v>
       </c>
       <c r="S12" s="1">
-        <v>-100.052000</v>
+        <v>-100.05200000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>44334.250066</v>
+        <v>44334.250066000001</v>
       </c>
       <c r="V12" s="1">
-        <v>12.315069</v>
+        <v>12.315068999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>955.628000</v>
+        <v>955.62800000000004</v>
       </c>
       <c r="X12" s="1">
-        <v>-86.954300</v>
+        <v>-86.954300000000003</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>44345.094100</v>
+        <v>44345.094100000002</v>
       </c>
       <c r="AA12" s="1">
         <v>12.318082</v>
       </c>
       <c r="AB12" s="1">
-        <v>963.832000</v>
+        <v>963.83199999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.429300</v>
+        <v>-76.429299999999998</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>44355.606342</v>
+        <v>44355.606341999999</v>
       </c>
       <c r="AF12" s="1">
         <v>12.321002</v>
       </c>
       <c r="AG12" s="1">
-        <v>969.026000</v>
+        <v>969.02599999999995</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.654400</v>
+        <v>-74.654399999999995</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>44366.103144</v>
+        <v>44366.103144000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>12.323918</v>
+        <v>12.323918000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>976.697000</v>
+        <v>976.697</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.664800</v>
+        <v>-79.6648</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>44376.812762</v>
+        <v>44376.812762000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>12.326892</v>
+        <v>12.326892000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>985.013000</v>
+        <v>985.01300000000003</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.436200</v>
+        <v>-91.436199999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>44387.531804</v>
+        <v>44387.531803999998</v>
       </c>
       <c r="AU12" s="1">
-        <v>12.329870</v>
+        <v>12.32987</v>
       </c>
       <c r="AV12" s="1">
-        <v>994.951000</v>
+        <v>994.95100000000002</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.205000</v>
+        <v>-109.205</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>44398.579693</v>
@@ -3201,58 +3617,58 @@
         <v>12.332939</v>
       </c>
       <c r="BA12" s="1">
-        <v>1003.260000</v>
+        <v>1003.26</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.971000</v>
+        <v>-124.971</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>44409.623118</v>
+        <v>44409.623118000003</v>
       </c>
       <c r="BE12" s="1">
-        <v>12.336006</v>
+        <v>12.336005999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1041.980000</v>
+        <v>1041.98</v>
       </c>
       <c r="BG12" s="1">
-        <v>-197.353000</v>
+        <v>-197.35300000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>44420.461236</v>
+        <v>44420.461236000003</v>
       </c>
       <c r="BJ12" s="1">
         <v>12.339017</v>
       </c>
       <c r="BK12" s="1">
-        <v>1108.600000</v>
+        <v>1108.5999999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>-314.983000</v>
+        <v>-314.983</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>44431.914320</v>
+        <v>44431.914320000003</v>
       </c>
       <c r="BO12" s="1">
         <v>12.342198</v>
       </c>
       <c r="BP12" s="1">
-        <v>1216.860000</v>
+        <v>1216.8599999999999</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-500.758000</v>
+        <v>-500.75799999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>44442.422067</v>
@@ -3261,332 +3677,332 @@
         <v>12.345117</v>
       </c>
       <c r="BU12" s="1">
-        <v>1338.960000</v>
+        <v>1338.96</v>
       </c>
       <c r="BV12" s="1">
-        <v>-705.400000</v>
+        <v>-705.4</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>44453.224437</v>
+        <v>44453.224436999997</v>
       </c>
       <c r="BY12" s="1">
-        <v>12.348118</v>
+        <v>12.348117999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1475.630000</v>
+        <v>1475.63</v>
       </c>
       <c r="CA12" s="1">
-        <v>-923.098000</v>
+        <v>-923.09799999999996</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>44465.091727</v>
+        <v>44465.091726999999</v>
       </c>
       <c r="CD12" s="1">
         <v>12.351414</v>
       </c>
       <c r="CE12" s="1">
-        <v>1834.510000</v>
+        <v>1834.51</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1441.840000</v>
+        <v>-1441.84</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>44292.676394</v>
+        <v>44292.676394000002</v>
       </c>
       <c r="B13" s="1">
         <v>12.303521</v>
       </c>
       <c r="C13" s="1">
-        <v>902.654000</v>
+        <v>902.654</v>
       </c>
       <c r="D13" s="1">
-        <v>-180.756000</v>
+        <v>-180.756</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>44303.106763</v>
+        <v>44303.106763000003</v>
       </c>
       <c r="G13" s="1">
         <v>12.306419</v>
       </c>
       <c r="H13" s="1">
-        <v>917.744000</v>
+        <v>917.74400000000003</v>
       </c>
       <c r="I13" s="1">
-        <v>-155.299000</v>
+        <v>-155.29900000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>44313.589213</v>
+        <v>44313.589212999999</v>
       </c>
       <c r="L13" s="1">
-        <v>12.309330</v>
+        <v>12.309329999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>940.651000</v>
+        <v>940.65099999999995</v>
       </c>
       <c r="N13" s="1">
-        <v>-114.082000</v>
+        <v>-114.08199999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>44324.494751</v>
+        <v>44324.494750999998</v>
       </c>
       <c r="Q13" s="1">
-        <v>12.312360</v>
+        <v>12.31236</v>
       </c>
       <c r="R13" s="1">
-        <v>948.120000</v>
+        <v>948.12</v>
       </c>
       <c r="S13" s="1">
-        <v>-100.065000</v>
+        <v>-100.065</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>44334.939009</v>
+        <v>44334.939009000002</v>
       </c>
       <c r="V13" s="1">
         <v>12.315261</v>
       </c>
       <c r="W13" s="1">
-        <v>955.619000</v>
+        <v>955.61900000000003</v>
       </c>
       <c r="X13" s="1">
-        <v>-86.779300</v>
+        <v>-86.779300000000006</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>44345.444307</v>
+        <v>44345.444306999998</v>
       </c>
       <c r="AA13" s="1">
-        <v>12.318179</v>
+        <v>12.318179000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>963.924000</v>
+        <v>963.92399999999998</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.439400</v>
+        <v>-76.439400000000006</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>44355.952021</v>
+        <v>44355.952020999997</v>
       </c>
       <c r="AF13" s="1">
-        <v>12.321098</v>
+        <v>12.321097999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>969.101000</v>
+        <v>969.101</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.467900</v>
+        <v>-74.4679</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>44366.455303</v>
+        <v>44366.455303000002</v>
       </c>
       <c r="AK13" s="1">
-        <v>12.324015</v>
+        <v>12.324014999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>976.696000</v>
+        <v>976.69600000000003</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.680100</v>
+        <v>-79.680099999999996</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>44377.483354</v>
+        <v>44377.483354000004</v>
       </c>
       <c r="AP13" s="1">
-        <v>12.327079</v>
+        <v>12.327078999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>984.995000</v>
+        <v>984.995</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.438600</v>
+        <v>-91.438599999999994</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>44388.235658</v>
+        <v>44388.235657999998</v>
       </c>
       <c r="AU13" s="1">
-        <v>12.330065</v>
+        <v>12.330064999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>994.954000</v>
+        <v>994.95399999999995</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.215000</v>
+        <v>-109.215</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>44398.988398</v>
+        <v>44398.988398000001</v>
       </c>
       <c r="AZ13" s="1">
         <v>12.333052</v>
       </c>
       <c r="BA13" s="1">
-        <v>1003.260000</v>
+        <v>1003.26</v>
       </c>
       <c r="BB13" s="1">
-        <v>-125.007000</v>
+        <v>-125.00700000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>44409.984702</v>
+        <v>44409.984702000002</v>
       </c>
       <c r="BE13" s="1">
         <v>12.336107</v>
       </c>
       <c r="BF13" s="1">
-        <v>1041.990000</v>
+        <v>1041.99</v>
       </c>
       <c r="BG13" s="1">
-        <v>-197.372000</v>
+        <v>-197.37200000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>44420.851593</v>
+        <v>44420.851592999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>12.339125</v>
+        <v>12.339124999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1108.630000</v>
+        <v>1108.6300000000001</v>
       </c>
       <c r="BL13" s="1">
-        <v>-314.974000</v>
+        <v>-314.97399999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>44432.308673</v>
       </c>
       <c r="BO13" s="1">
-        <v>12.342308</v>
+        <v>12.342307999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1216.920000</v>
+        <v>1216.92</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-500.754000</v>
+        <v>-500.75400000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>44442.847138</v>
+        <v>44442.847137999997</v>
       </c>
       <c r="BT13" s="1">
-        <v>12.345235</v>
+        <v>12.345235000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1338.990000</v>
+        <v>1338.99</v>
       </c>
       <c r="BV13" s="1">
-        <v>-705.331000</v>
+        <v>-705.33100000000002</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>44453.663895</v>
+        <v>44453.663894999998</v>
       </c>
       <c r="BY13" s="1">
-        <v>12.348240</v>
+        <v>12.348240000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1475.610000</v>
+        <v>1475.61</v>
       </c>
       <c r="CA13" s="1">
-        <v>-923.036000</v>
+        <v>-923.03599999999994</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>44465.610038</v>
+        <v>44465.610037999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>12.351558</v>
+        <v>12.351558000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1834.710000</v>
+        <v>1834.71</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1441.600000</v>
+        <v>-1441.6</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>44293.017651</v>
+        <v>44293.017651000002</v>
       </c>
       <c r="B14" s="1">
         <v>12.303616</v>
       </c>
       <c r="C14" s="1">
-        <v>902.553000</v>
+        <v>902.553</v>
       </c>
       <c r="D14" s="1">
-        <v>-180.733000</v>
+        <v>-180.733</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>44303.451980</v>
+        <v>44303.451979999998</v>
       </c>
       <c r="G14" s="1">
         <v>12.306514</v>
       </c>
       <c r="H14" s="1">
-        <v>917.855000</v>
+        <v>917.85500000000002</v>
       </c>
       <c r="I14" s="1">
-        <v>-155.384000</v>
+        <v>-155.38399999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>44314.281164</v>
@@ -3595,435 +4011,435 @@
         <v>12.309523</v>
       </c>
       <c r="M14" s="1">
-        <v>940.584000</v>
+        <v>940.58399999999995</v>
       </c>
       <c r="N14" s="1">
-        <v>-114.173000</v>
+        <v>-114.173</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>44324.840958</v>
+        <v>44324.840958000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>12.312456</v>
+        <v>12.312455999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>948.070000</v>
+        <v>948.07</v>
       </c>
       <c r="S14" s="1">
-        <v>-100.108000</v>
+        <v>-100.108</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>44335.281519</v>
+        <v>44335.281518999996</v>
       </c>
       <c r="V14" s="1">
         <v>12.315356</v>
       </c>
       <c r="W14" s="1">
-        <v>955.702000</v>
+        <v>955.702</v>
       </c>
       <c r="X14" s="1">
-        <v>-86.907700</v>
+        <v>-86.907700000000006</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>44345.792468</v>
       </c>
       <c r="AA14" s="1">
-        <v>12.318276</v>
+        <v>12.318275999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>963.913000</v>
+        <v>963.91300000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.444300</v>
+        <v>-76.444299999999998</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>44356.614213</v>
+        <v>44356.614213000001</v>
       </c>
       <c r="AF14" s="1">
         <v>12.321282</v>
       </c>
       <c r="AG14" s="1">
-        <v>969.065000</v>
+        <v>969.06500000000005</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.647100</v>
+        <v>-74.647099999999995</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>44367.118456</v>
+        <v>44367.118455999997</v>
       </c>
       <c r="AK14" s="1">
-        <v>12.324200</v>
+        <v>12.324199999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>976.718000</v>
+        <v>976.71799999999996</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.690000</v>
+        <v>-79.69</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>44377.917850</v>
+        <v>44377.917849999998</v>
       </c>
       <c r="AP14" s="1">
         <v>12.327199</v>
       </c>
       <c r="AQ14" s="1">
-        <v>984.991000</v>
+        <v>984.99099999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.411900</v>
+        <v>-91.411900000000003</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>44388.648298</v>
       </c>
       <c r="AU14" s="1">
-        <v>12.330180</v>
+        <v>12.33018</v>
       </c>
       <c r="AV14" s="1">
-        <v>994.942000</v>
+        <v>994.94200000000001</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.225000</v>
+        <v>-109.22499999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>44399.365853</v>
+        <v>44399.365853000003</v>
       </c>
       <c r="AZ14" s="1">
         <v>12.333157</v>
       </c>
       <c r="BA14" s="1">
-        <v>1003.280000</v>
+        <v>1003.28</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.985000</v>
+        <v>-124.985</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>44410.349297</v>
+        <v>44410.349297000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>12.336208</v>
+        <v>12.336207999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1042.010000</v>
+        <v>1042.01</v>
       </c>
       <c r="BG14" s="1">
-        <v>-197.382000</v>
+        <v>-197.38200000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>44421.225535</v>
+        <v>44421.225534999998</v>
       </c>
       <c r="BJ14" s="1">
         <v>12.339229</v>
       </c>
       <c r="BK14" s="1">
-        <v>1108.610000</v>
+        <v>1108.6099999999999</v>
       </c>
       <c r="BL14" s="1">
-        <v>-314.955000</v>
+        <v>-314.95499999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>44432.733244</v>
+        <v>44432.733244000003</v>
       </c>
       <c r="BO14" s="1">
         <v>12.342426</v>
       </c>
       <c r="BP14" s="1">
-        <v>1216.860000</v>
+        <v>1216.8599999999999</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-500.768000</v>
+        <v>-500.76799999999997</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>44443.266296</v>
+        <v>44443.266296000002</v>
       </c>
       <c r="BT14" s="1">
         <v>12.345352</v>
       </c>
       <c r="BU14" s="1">
-        <v>1339.010000</v>
+        <v>1339.01</v>
       </c>
       <c r="BV14" s="1">
-        <v>-705.336000</v>
+        <v>-705.33600000000001</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>44454.084004</v>
+        <v>44454.084003999997</v>
       </c>
       <c r="BY14" s="1">
         <v>12.348357</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1475.550000</v>
+        <v>1475.55</v>
       </c>
       <c r="CA14" s="1">
-        <v>-923.175000</v>
+        <v>-923.17499999999995</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>44466.163573</v>
+        <v>44466.163572999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>12.351712</v>
+        <v>12.351711999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1835.300000</v>
+        <v>1835.3</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1440.810000</v>
+        <v>-1440.81</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>44293.701129</v>
+        <v>44293.701129000001</v>
       </c>
       <c r="B15" s="1">
         <v>12.303806</v>
       </c>
       <c r="C15" s="1">
-        <v>902.632000</v>
+        <v>902.63199999999995</v>
       </c>
       <c r="D15" s="1">
-        <v>-180.720000</v>
+        <v>-180.72</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>44304.145422</v>
+        <v>44304.145422000001</v>
       </c>
       <c r="G15" s="1">
-        <v>12.306707</v>
+        <v>12.306706999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>917.667000</v>
+        <v>917.66700000000003</v>
       </c>
       <c r="I15" s="1">
-        <v>-155.389000</v>
+        <v>-155.38900000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>44314.626844</v>
+        <v>44314.626843999999</v>
       </c>
       <c r="L15" s="1">
         <v>12.309619</v>
       </c>
       <c r="M15" s="1">
-        <v>940.630000</v>
+        <v>940.63</v>
       </c>
       <c r="N15" s="1">
-        <v>-114.174000</v>
+        <v>-114.17400000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>44325.191661</v>
+        <v>44325.191660999997</v>
       </c>
       <c r="Q15" s="1">
-        <v>12.312553</v>
+        <v>12.312552999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>948.040000</v>
+        <v>948.04</v>
       </c>
       <c r="S15" s="1">
-        <v>-100.088000</v>
+        <v>-100.08799999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>44335.623489</v>
+        <v>44335.623488999998</v>
       </c>
       <c r="V15" s="1">
-        <v>12.315451</v>
+        <v>12.315450999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>955.769000</v>
+        <v>955.76900000000001</v>
       </c>
       <c r="X15" s="1">
-        <v>-86.915000</v>
+        <v>-86.915000000000006</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>44346.451154</v>
+        <v>44346.451154000002</v>
       </c>
       <c r="AA15" s="1">
-        <v>12.318459</v>
+        <v>12.318459000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>963.857000</v>
+        <v>963.85699999999997</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.432700</v>
+        <v>-76.432699999999997</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>44356.980756</v>
+        <v>44356.980755999997</v>
       </c>
       <c r="AF15" s="1">
         <v>12.321384</v>
       </c>
       <c r="AG15" s="1">
-        <v>969.086000</v>
+        <v>969.08600000000001</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.662400</v>
+        <v>-74.662400000000005</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>44367.499878</v>
+        <v>44367.499878000002</v>
       </c>
       <c r="AK15" s="1">
         <v>12.324306</v>
       </c>
       <c r="AL15" s="1">
-        <v>976.706000</v>
+        <v>976.70600000000002</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.647700</v>
+        <v>-79.6477</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>44378.279432</v>
+        <v>44378.279432000003</v>
       </c>
       <c r="AP15" s="1">
-        <v>12.327300</v>
+        <v>12.327299999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>984.999000</v>
+        <v>984.99900000000002</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.434900</v>
+        <v>-91.434899999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>44389.015337</v>
+        <v>44389.015336999997</v>
       </c>
       <c r="AU15" s="1">
         <v>12.330282</v>
       </c>
       <c r="AV15" s="1">
-        <v>994.966000</v>
+        <v>994.96600000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.200000</v>
+        <v>-109.2</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>44399.741820</v>
+        <v>44399.741820000003</v>
       </c>
       <c r="AZ15" s="1">
         <v>12.333262</v>
       </c>
       <c r="BA15" s="1">
-        <v>1003.290000</v>
+        <v>1003.29</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.978000</v>
+        <v>-124.97799999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>44410.773837</v>
+        <v>44410.773837000001</v>
       </c>
       <c r="BE15" s="1">
         <v>12.336326</v>
       </c>
       <c r="BF15" s="1">
-        <v>1041.980000</v>
+        <v>1041.98</v>
       </c>
       <c r="BG15" s="1">
-        <v>-197.367000</v>
+        <v>-197.36699999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>44421.976974</v>
+        <v>44421.976973999997</v>
       </c>
       <c r="BJ15" s="1">
-        <v>12.339438</v>
+        <v>12.339437999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1108.630000</v>
+        <v>1108.6300000000001</v>
       </c>
       <c r="BL15" s="1">
-        <v>-314.959000</v>
+        <v>-314.959</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>44433.129055</v>
+        <v>44433.129054999998</v>
       </c>
       <c r="BO15" s="1">
-        <v>12.342536</v>
+        <v>12.342536000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1216.850000</v>
+        <v>1216.8499999999999</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-500.752000</v>
+        <v>-500.75200000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>44443.696291</v>
@@ -4032,90 +4448,90 @@
         <v>12.345471</v>
       </c>
       <c r="BU15" s="1">
-        <v>1339.000000</v>
+        <v>1339</v>
       </c>
       <c r="BV15" s="1">
-        <v>-705.296000</v>
+        <v>-705.29600000000005</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>44454.518995</v>
+        <v>44454.518994999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>12.348477</v>
+        <v>12.348477000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1475.640000</v>
+        <v>1475.64</v>
       </c>
       <c r="CA15" s="1">
-        <v>-923.128000</v>
+        <v>-923.12800000000004</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>44466.692348</v>
+        <v>44466.692347999997</v>
       </c>
       <c r="CD15" s="1">
-        <v>12.351859</v>
+        <v>12.351858999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1834.580000</v>
+        <v>1834.58</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1441.490000</v>
+        <v>-1441.49</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>44294.043399</v>
+        <v>44294.043399000002</v>
       </c>
       <c r="B16" s="1">
         <v>12.303901</v>
       </c>
       <c r="C16" s="1">
-        <v>902.414000</v>
+        <v>902.41399999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-180.928000</v>
+        <v>-180.928</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>44304.491593</v>
+        <v>44304.491592999999</v>
       </c>
       <c r="G16" s="1">
         <v>12.306803</v>
       </c>
       <c r="H16" s="1">
-        <v>917.773000</v>
+        <v>917.77300000000002</v>
       </c>
       <c r="I16" s="1">
-        <v>-155.237000</v>
+        <v>-155.23699999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>44314.972557</v>
+        <v>44314.972557000001</v>
       </c>
       <c r="L16" s="1">
-        <v>12.309715</v>
+        <v>12.309715000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>940.565000</v>
+        <v>940.56500000000005</v>
       </c>
       <c r="N16" s="1">
-        <v>-114.147000</v>
+        <v>-114.14700000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>44325.852798</v>
@@ -4124,133 +4540,133 @@
         <v>12.312737</v>
       </c>
       <c r="R16" s="1">
-        <v>948.025000</v>
+        <v>948.02499999999998</v>
       </c>
       <c r="S16" s="1">
-        <v>-100.082000</v>
+        <v>-100.08199999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>44336.281185</v>
       </c>
       <c r="V16" s="1">
-        <v>12.315634</v>
+        <v>12.315633999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>955.610000</v>
+        <v>955.61</v>
       </c>
       <c r="X16" s="1">
-        <v>-86.898800</v>
+        <v>-86.898799999999994</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>44346.838531</v>
+        <v>44346.838531000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>12.318566</v>
+        <v>12.318566000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>963.783000</v>
+        <v>963.78300000000002</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.449800</v>
+        <v>-76.449799999999996</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>44357.321011</v>
       </c>
       <c r="AF16" s="1">
-        <v>12.321478</v>
+        <v>12.321478000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>969.027000</v>
+        <v>969.02700000000004</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.694200</v>
+        <v>-74.694199999999995</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>44367.849063</v>
+        <v>44367.849063000001</v>
       </c>
       <c r="AK16" s="1">
         <v>12.324403</v>
       </c>
       <c r="AL16" s="1">
-        <v>976.702000</v>
+        <v>976.702</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.671900</v>
+        <v>-79.671899999999994</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>44378.640519</v>
       </c>
       <c r="AP16" s="1">
-        <v>12.327400</v>
+        <v>12.327400000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>984.980000</v>
+        <v>984.98</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.430100</v>
+        <v>-91.430099999999996</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>44389.440411</v>
+        <v>44389.440411000003</v>
       </c>
       <c r="AU16" s="1">
-        <v>12.330400</v>
+        <v>12.330399999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>994.948000</v>
+        <v>994.94799999999998</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.205000</v>
+        <v>-109.205</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>44400.177339</v>
+        <v>44400.177339000002</v>
       </c>
       <c r="AZ16" s="1">
         <v>12.333383</v>
       </c>
       <c r="BA16" s="1">
-        <v>1003.270000</v>
+        <v>1003.27</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.994000</v>
+        <v>-124.994</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>44411.068956</v>
+        <v>44411.068956000003</v>
       </c>
       <c r="BE16" s="1">
         <v>12.336408</v>
       </c>
       <c r="BF16" s="1">
-        <v>1041.990000</v>
+        <v>1041.99</v>
       </c>
       <c r="BG16" s="1">
-        <v>-197.352000</v>
+        <v>-197.352</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>44422.351982</v>
@@ -4259,240 +4675,240 @@
         <v>12.339542</v>
       </c>
       <c r="BK16" s="1">
-        <v>1108.630000</v>
+        <v>1108.6300000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-314.963000</v>
+        <v>-314.96300000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>44433.547152</v>
+        <v>44433.547151999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>12.342652</v>
+        <v>12.342651999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1216.880000</v>
+        <v>1216.8800000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-500.784000</v>
+        <v>-500.78399999999999</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>44444.100561</v>
+        <v>44444.100560999999</v>
       </c>
       <c r="BT16" s="1">
         <v>12.345583</v>
       </c>
       <c r="BU16" s="1">
-        <v>1339.070000</v>
+        <v>1339.07</v>
       </c>
       <c r="BV16" s="1">
-        <v>-705.291000</v>
+        <v>-705.29100000000005</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>44454.945585</v>
+        <v>44454.945585000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>12.348596</v>
+        <v>12.348596000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1475.700000</v>
+        <v>1475.7</v>
       </c>
       <c r="CA16" s="1">
-        <v>-923.106000</v>
+        <v>-923.10599999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>44467.211651</v>
+        <v>44467.211650999998</v>
       </c>
       <c r="CD16" s="1">
         <v>12.352003</v>
       </c>
       <c r="CE16" s="1">
-        <v>1835.530000</v>
+        <v>1835.53</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1442.440000</v>
+        <v>-1442.44</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>44294.383623</v>
+        <v>44294.383623000002</v>
       </c>
       <c r="B17" s="1">
         <v>12.303995</v>
       </c>
       <c r="C17" s="1">
-        <v>902.298000</v>
+        <v>902.298</v>
       </c>
       <c r="D17" s="1">
-        <v>-180.977000</v>
+        <v>-180.977</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>44304.835817</v>
+        <v>44304.835816999999</v>
       </c>
       <c r="G17" s="1">
         <v>12.306899</v>
       </c>
       <c r="H17" s="1">
-        <v>917.854000</v>
+        <v>917.85400000000004</v>
       </c>
       <c r="I17" s="1">
-        <v>-155.014000</v>
+        <v>-155.01400000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>44315.629260</v>
+        <v>44315.629260000002</v>
       </c>
       <c r="L17" s="1">
-        <v>12.309897</v>
+        <v>12.309896999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>940.695000</v>
+        <v>940.69500000000005</v>
       </c>
       <c r="N17" s="1">
-        <v>-114.230000</v>
+        <v>-114.23</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>44326.238685</v>
+        <v>44326.238684999997</v>
       </c>
       <c r="Q17" s="1">
         <v>12.312844</v>
       </c>
       <c r="R17" s="1">
-        <v>948.114000</v>
+        <v>948.11400000000003</v>
       </c>
       <c r="S17" s="1">
-        <v>-100.058000</v>
+        <v>-100.05800000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>44336.654671</v>
+        <v>44336.654670999997</v>
       </c>
       <c r="V17" s="1">
         <v>12.315737</v>
       </c>
       <c r="W17" s="1">
-        <v>955.566000</v>
+        <v>955.56600000000003</v>
       </c>
       <c r="X17" s="1">
-        <v>-86.807900</v>
+        <v>-86.807900000000004</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>44347.186227</v>
+        <v>44347.186226999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>12.318663</v>
+        <v>12.318663000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>963.875000</v>
+        <v>963.875</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.450200</v>
+        <v>-76.450199999999995</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>44357.667219</v>
+        <v>44357.667219000003</v>
       </c>
       <c r="AF17" s="1">
         <v>12.321574</v>
       </c>
       <c r="AG17" s="1">
-        <v>969.076000</v>
+        <v>969.07600000000002</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.742200</v>
+        <v>-74.742199999999997</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>44368.197290</v>
+        <v>44368.197289999996</v>
       </c>
       <c r="AK17" s="1">
-        <v>12.324499</v>
+        <v>12.324498999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>976.718000</v>
+        <v>976.71799999999996</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.691400</v>
+        <v>-79.691400000000002</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>44379.062614</v>
+        <v>44379.062614000002</v>
       </c>
       <c r="AP17" s="1">
         <v>12.327517</v>
       </c>
       <c r="AQ17" s="1">
-        <v>984.980000</v>
+        <v>984.98</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.438000</v>
+        <v>-91.438000000000002</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>44389.741480</v>
+        <v>44389.741479999997</v>
       </c>
       <c r="AU17" s="1">
         <v>12.330484</v>
       </c>
       <c r="AV17" s="1">
-        <v>994.946000</v>
+        <v>994.94600000000003</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.212000</v>
+        <v>-109.212</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>44400.461054</v>
+        <v>44400.461053999999</v>
       </c>
       <c r="AZ17" s="1">
         <v>12.333461</v>
       </c>
       <c r="BA17" s="1">
-        <v>1003.270000</v>
+        <v>1003.27</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.983000</v>
+        <v>-124.983</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>44411.429548</v>
@@ -4501,255 +4917,255 @@
         <v>12.336508</v>
       </c>
       <c r="BF17" s="1">
-        <v>1041.970000</v>
+        <v>1041.97</v>
       </c>
       <c r="BG17" s="1">
-        <v>-197.367000</v>
+        <v>-197.36699999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>44422.726431</v>
+        <v>44422.726431000003</v>
       </c>
       <c r="BJ17" s="1">
         <v>12.339646</v>
       </c>
       <c r="BK17" s="1">
-        <v>1108.640000</v>
+        <v>1108.6400000000001</v>
       </c>
       <c r="BL17" s="1">
-        <v>-314.982000</v>
+        <v>-314.98200000000003</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>44433.944943</v>
+        <v>44433.944943000002</v>
       </c>
       <c r="BO17" s="1">
         <v>12.342762</v>
       </c>
       <c r="BP17" s="1">
-        <v>1216.890000</v>
+        <v>1216.8900000000001</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-500.737000</v>
+        <v>-500.73700000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>44444.535522</v>
+        <v>44444.535521999998</v>
       </c>
       <c r="BT17" s="1">
         <v>12.345704</v>
       </c>
       <c r="BU17" s="1">
-        <v>1339.070000</v>
+        <v>1339.07</v>
       </c>
       <c r="BV17" s="1">
-        <v>-705.321000</v>
+        <v>-705.32100000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>44455.362689</v>
+        <v>44455.362689000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>12.348712</v>
+        <v>12.348712000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1475.530000</v>
+        <v>1475.53</v>
       </c>
       <c r="CA17" s="1">
-        <v>-923.026000</v>
+        <v>-923.02599999999995</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>44467.725969</v>
+        <v>44467.725968999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>12.352146</v>
+        <v>12.352145999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1836.060000</v>
+        <v>1836.06</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1441.550000</v>
+        <v>-1441.55</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>44295.038370</v>
+        <v>44295.038370000002</v>
       </c>
       <c r="B18" s="1">
-        <v>12.304177</v>
+        <v>12.304176999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>902.470000</v>
+        <v>902.47</v>
       </c>
       <c r="D18" s="1">
-        <v>-180.951000</v>
+        <v>-180.95099999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>44305.538184</v>
+        <v>44305.538183999997</v>
       </c>
       <c r="G18" s="1">
-        <v>12.307094</v>
+        <v>12.307093999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>917.592000</v>
+        <v>917.59199999999998</v>
       </c>
       <c r="I18" s="1">
-        <v>-155.580000</v>
+        <v>-155.58000000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>44316.007242</v>
       </c>
       <c r="L18" s="1">
-        <v>12.310002</v>
+        <v>12.310002000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>940.630000</v>
+        <v>940.63</v>
       </c>
       <c r="N18" s="1">
-        <v>-114.156000</v>
+        <v>-114.15600000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>44326.585916</v>
+        <v>44326.585916000004</v>
       </c>
       <c r="Q18" s="1">
         <v>12.312941</v>
       </c>
       <c r="R18" s="1">
-        <v>948.110000</v>
+        <v>948.11</v>
       </c>
       <c r="S18" s="1">
-        <v>-100.071000</v>
+        <v>-100.071</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>44337.000415</v>
+        <v>44337.000415000002</v>
       </c>
       <c r="V18" s="1">
         <v>12.315833</v>
       </c>
       <c r="W18" s="1">
-        <v>955.571000</v>
+        <v>955.57100000000003</v>
       </c>
       <c r="X18" s="1">
-        <v>-86.947100</v>
+        <v>-86.947100000000006</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>44347.535906</v>
+        <v>44347.535905999997</v>
       </c>
       <c r="AA18" s="1">
-        <v>12.318760</v>
+        <v>12.318759999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>963.848000</v>
+        <v>963.84799999999996</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.455800</v>
+        <v>-76.455799999999996</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>44358.091762</v>
+        <v>44358.091761999996</v>
       </c>
       <c r="AF18" s="1">
-        <v>12.321692</v>
+        <v>12.321692000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>969.059000</v>
+        <v>969.05899999999997</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.646800</v>
+        <v>-74.646799999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>44368.617902</v>
+        <v>44368.617901999998</v>
       </c>
       <c r="AK18" s="1">
-        <v>12.324616</v>
+        <v>12.324616000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>976.710000</v>
+        <v>976.71</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.706700</v>
+        <v>-79.706699999999998</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>44379.359718</v>
       </c>
       <c r="AP18" s="1">
-        <v>12.327600</v>
+        <v>12.3276</v>
       </c>
       <c r="AQ18" s="1">
-        <v>984.990000</v>
+        <v>984.99</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.430900</v>
+        <v>-91.430899999999994</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>44390.108057</v>
+        <v>44390.108056999998</v>
       </c>
       <c r="AU18" s="1">
         <v>12.330586</v>
       </c>
       <c r="AV18" s="1">
-        <v>994.943000</v>
+        <v>994.94299999999998</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.212000</v>
+        <v>-109.212</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>44400.820650</v>
+        <v>44400.820650000001</v>
       </c>
       <c r="AZ18" s="1">
         <v>12.333561</v>
       </c>
       <c r="BA18" s="1">
-        <v>1003.280000</v>
+        <v>1003.28</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.979000</v>
+        <v>-124.979</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>44411.788193</v>
@@ -4758,105 +5174,105 @@
         <v>12.336608</v>
       </c>
       <c r="BF18" s="1">
-        <v>1041.960000</v>
+        <v>1041.96</v>
       </c>
       <c r="BG18" s="1">
-        <v>-197.351000</v>
+        <v>-197.351</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>44423.476382</v>
+        <v>44423.476382000001</v>
       </c>
       <c r="BJ18" s="1">
         <v>12.339855</v>
       </c>
       <c r="BK18" s="1">
-        <v>1108.650000</v>
+        <v>1108.6500000000001</v>
       </c>
       <c r="BL18" s="1">
-        <v>-314.982000</v>
+        <v>-314.98200000000003</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>44434.368067</v>
+        <v>44434.368067000003</v>
       </c>
       <c r="BO18" s="1">
-        <v>12.342880</v>
+        <v>12.342879999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1216.850000</v>
+        <v>1216.8499999999999</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-500.797000</v>
+        <v>-500.79700000000003</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>44444.959632</v>
+        <v>44444.959631999998</v>
       </c>
       <c r="BT18" s="1">
         <v>12.345822</v>
       </c>
       <c r="BU18" s="1">
-        <v>1339.090000</v>
+        <v>1339.09</v>
       </c>
       <c r="BV18" s="1">
-        <v>-705.310000</v>
+        <v>-705.31</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>44455.785777</v>
+        <v>44455.785776999997</v>
       </c>
       <c r="BY18" s="1">
         <v>12.348829</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1475.620000</v>
+        <v>1475.62</v>
       </c>
       <c r="CA18" s="1">
-        <v>-923.081000</v>
+        <v>-923.08100000000002</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>44468.249249</v>
       </c>
       <c r="CD18" s="1">
-        <v>12.352291</v>
+        <v>12.352290999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1834.390000</v>
+        <v>1834.39</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1441.600000</v>
+        <v>-1441.6</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>44295.409381</v>
+        <v>44295.409380999998</v>
       </c>
       <c r="B19" s="1">
-        <v>12.304280</v>
+        <v>12.30428</v>
       </c>
       <c r="C19" s="1">
-        <v>902.454000</v>
+        <v>902.45399999999995</v>
       </c>
       <c r="D19" s="1">
-        <v>-180.905000</v>
+        <v>-180.905</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>44305.867993</v>
@@ -4865,527 +5281,527 @@
         <v>12.307186</v>
       </c>
       <c r="H19" s="1">
-        <v>917.761000</v>
+        <v>917.76099999999997</v>
       </c>
       <c r="I19" s="1">
-        <v>-154.967000</v>
+        <v>-154.96700000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>44316.357881</v>
+        <v>44316.357881000004</v>
       </c>
       <c r="L19" s="1">
-        <v>12.310099</v>
+        <v>12.310098999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>940.596000</v>
+        <v>940.596</v>
       </c>
       <c r="N19" s="1">
-        <v>-114.197000</v>
+        <v>-114.197</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>44326.937052</v>
+        <v>44326.937052000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>12.313038</v>
+        <v>12.313038000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>948.068000</v>
+        <v>948.06799999999998</v>
       </c>
       <c r="S19" s="1">
-        <v>-100.084000</v>
+        <v>-100.084</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>44337.352542</v>
+        <v>44337.352542000001</v>
       </c>
       <c r="V19" s="1">
-        <v>12.315931</v>
+        <v>12.315931000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>955.602000</v>
+        <v>955.60199999999998</v>
       </c>
       <c r="X19" s="1">
-        <v>-86.725000</v>
+        <v>-86.724999999999994</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>44347.961969</v>
+        <v>44347.961969000004</v>
       </c>
       <c r="AA19" s="1">
         <v>12.318878</v>
       </c>
       <c r="AB19" s="1">
-        <v>963.881000</v>
+        <v>963.88099999999997</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.463400</v>
+        <v>-76.463399999999993</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>44358.382419</v>
+        <v>44358.382419000001</v>
       </c>
       <c r="AF19" s="1">
         <v>12.321773</v>
       </c>
       <c r="AG19" s="1">
-        <v>969.056000</v>
+        <v>969.05600000000004</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.647300</v>
+        <v>-74.647300000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>44368.897110</v>
+        <v>44368.897109999998</v>
       </c>
       <c r="AK19" s="1">
-        <v>12.324694</v>
+        <v>12.324693999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>976.689000</v>
+        <v>976.68899999999996</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.681800</v>
+        <v>-79.681799999999996</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>44379.720310</v>
+        <v>44379.720309999997</v>
       </c>
       <c r="AP19" s="1">
-        <v>12.327700</v>
+        <v>12.3277</v>
       </c>
       <c r="AQ19" s="1">
-        <v>985.008000</v>
+        <v>985.00800000000004</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.443600</v>
+        <v>-91.443600000000004</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>44390.471128</v>
+        <v>44390.471127999997</v>
       </c>
       <c r="AU19" s="1">
         <v>12.330686</v>
       </c>
       <c r="AV19" s="1">
-        <v>994.944000</v>
+        <v>994.94399999999996</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.221000</v>
+        <v>-109.221</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>44401.178235</v>
+        <v>44401.178234999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>12.333661</v>
+        <v>12.333660999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1003.270000</v>
+        <v>1003.27</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.955000</v>
+        <v>-124.955</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>44412.511851</v>
+        <v>44412.511851000003</v>
       </c>
       <c r="BE19" s="1">
-        <v>12.336809</v>
+        <v>12.336809000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1041.990000</v>
+        <v>1041.99</v>
       </c>
       <c r="BG19" s="1">
-        <v>-197.348000</v>
+        <v>-197.34800000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>44423.850365</v>
+        <v>44423.850364999998</v>
       </c>
       <c r="BJ19" s="1">
-        <v>12.339958</v>
+        <v>12.339957999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1108.630000</v>
+        <v>1108.6300000000001</v>
       </c>
       <c r="BL19" s="1">
-        <v>-314.962000</v>
+        <v>-314.96199999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>44434.760366</v>
+        <v>44434.760366000002</v>
       </c>
       <c r="BO19" s="1">
-        <v>12.342989</v>
+        <v>12.342988999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1216.910000</v>
+        <v>1216.9100000000001</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-500.739000</v>
+        <v>-500.73899999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>44445.374255</v>
+        <v>44445.374255000002</v>
       </c>
       <c r="BT19" s="1">
-        <v>12.345937</v>
+        <v>12.345936999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1339.030000</v>
+        <v>1339.03</v>
       </c>
       <c r="BV19" s="1">
-        <v>-705.271000</v>
+        <v>-705.27099999999996</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>44456.517872</v>
+        <v>44456.517871999997</v>
       </c>
       <c r="BY19" s="1">
         <v>12.349033</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1475.610000</v>
+        <v>1475.61</v>
       </c>
       <c r="CA19" s="1">
-        <v>-923.131000</v>
+        <v>-923.13099999999997</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>44469.099921</v>
+        <v>44469.099921000001</v>
       </c>
       <c r="CD19" s="1">
         <v>12.352528</v>
       </c>
       <c r="CE19" s="1">
-        <v>1835.580000</v>
+        <v>1835.58</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1441.040000</v>
+        <v>-1441.04</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>44295.751094</v>
+        <v>44295.751093999999</v>
       </c>
       <c r="B20" s="1">
         <v>12.304375</v>
       </c>
       <c r="C20" s="1">
-        <v>902.326000</v>
+        <v>902.32600000000002</v>
       </c>
       <c r="D20" s="1">
-        <v>-180.928000</v>
+        <v>-180.928</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>44306.211719</v>
+        <v>44306.211718999999</v>
       </c>
       <c r="G20" s="1">
         <v>12.307281</v>
       </c>
       <c r="H20" s="1">
-        <v>917.613000</v>
+        <v>917.61300000000006</v>
       </c>
       <c r="I20" s="1">
-        <v>-155.073000</v>
+        <v>-155.07300000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>44316.701610</v>
+        <v>44316.701609999996</v>
       </c>
       <c r="L20" s="1">
         <v>12.310195</v>
       </c>
       <c r="M20" s="1">
-        <v>940.621000</v>
+        <v>940.62099999999998</v>
       </c>
       <c r="N20" s="1">
-        <v>-114.109000</v>
+        <v>-114.10899999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>44327.362656</v>
+        <v>44327.362655999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>12.313156</v>
+        <v>12.313155999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>948.053000</v>
+        <v>948.053</v>
       </c>
       <c r="S20" s="1">
-        <v>-100.048000</v>
+        <v>-100.048</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>44337.774638</v>
+        <v>44337.774638000003</v>
       </c>
       <c r="V20" s="1">
         <v>12.316049</v>
       </c>
       <c r="W20" s="1">
-        <v>955.654000</v>
+        <v>955.654</v>
       </c>
       <c r="X20" s="1">
-        <v>-86.850700</v>
+        <v>-86.850700000000003</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>44348.242208</v>
+        <v>44348.242208000003</v>
       </c>
       <c r="AA20" s="1">
         <v>12.318956</v>
       </c>
       <c r="AB20" s="1">
-        <v>963.897000</v>
+        <v>963.89700000000005</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.424700</v>
+        <v>-76.424700000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>44358.724193</v>
+        <v>44358.724193000002</v>
       </c>
       <c r="AF20" s="1">
         <v>12.321868</v>
       </c>
       <c r="AG20" s="1">
-        <v>969.012000</v>
+        <v>969.01199999999994</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.711500</v>
+        <v>-74.711500000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>44369.243812</v>
+        <v>44369.243812000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>12.324790</v>
+        <v>12.32479</v>
       </c>
       <c r="AL20" s="1">
-        <v>976.696000</v>
+        <v>976.69600000000003</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.670200</v>
+        <v>-79.670199999999994</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>44380.080407</v>
+        <v>44380.080407000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>12.327800</v>
+        <v>12.3278</v>
       </c>
       <c r="AQ20" s="1">
-        <v>984.982000</v>
+        <v>984.98199999999997</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.438300</v>
+        <v>-91.438299999999998</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>44391.201208</v>
+        <v>44391.201207999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>12.330889</v>
+        <v>12.330889000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>994.943000</v>
+        <v>994.94299999999998</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.230000</v>
+        <v>-109.23</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>44401.897469</v>
+        <v>44401.897469000003</v>
       </c>
       <c r="AZ20" s="1">
-        <v>12.333860</v>
+        <v>12.33386</v>
       </c>
       <c r="BA20" s="1">
-        <v>1003.280000</v>
+        <v>1003.28</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.966000</v>
+        <v>-124.96599999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>44412.874593</v>
       </c>
       <c r="BE20" s="1">
-        <v>12.336910</v>
+        <v>12.33691</v>
       </c>
       <c r="BF20" s="1">
-        <v>1041.990000</v>
+        <v>1041.99</v>
       </c>
       <c r="BG20" s="1">
-        <v>-197.340000</v>
+        <v>-197.34</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>44424.228315</v>
       </c>
       <c r="BJ20" s="1">
-        <v>12.340063</v>
+        <v>12.340063000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1108.640000</v>
+        <v>1108.6400000000001</v>
       </c>
       <c r="BL20" s="1">
-        <v>-314.976000</v>
+        <v>-314.976</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>44435.180974</v>
+        <v>44435.180974000003</v>
       </c>
       <c r="BO20" s="1">
-        <v>12.343106</v>
+        <v>12.343106000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1216.880000</v>
+        <v>1216.8800000000001</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-500.752000</v>
+        <v>-500.75200000000001</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>44446.127182</v>
+        <v>44446.127181999997</v>
       </c>
       <c r="BT20" s="1">
-        <v>12.346146</v>
+        <v>12.346145999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1339.050000</v>
+        <v>1339.05</v>
       </c>
       <c r="BV20" s="1">
-        <v>-705.273000</v>
+        <v>-705.27300000000002</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>44456.647329</v>
+        <v>44456.647328999999</v>
       </c>
       <c r="BY20" s="1">
         <v>12.349069</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1475.560000</v>
+        <v>1475.56</v>
       </c>
       <c r="CA20" s="1">
-        <v>-922.973000</v>
+        <v>-922.97299999999996</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>44469.321104</v>
+        <v>44469.321104000002</v>
       </c>
       <c r="CD20" s="1">
         <v>12.352589</v>
       </c>
       <c r="CE20" s="1">
-        <v>1835.400000</v>
+        <v>1835.4</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1440.690000</v>
+        <v>-1440.69</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>44296.092836</v>
+        <v>44296.092836000003</v>
       </c>
       <c r="B21" s="1">
-        <v>12.304470</v>
+        <v>12.30447</v>
       </c>
       <c r="C21" s="1">
-        <v>902.365000</v>
+        <v>902.36500000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-180.836000</v>
+        <v>-180.83600000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>44306.633814</v>
+        <v>44306.633814000001</v>
       </c>
       <c r="G21" s="1">
-        <v>12.307398</v>
+        <v>12.307397999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>917.782000</v>
+        <v>917.78200000000004</v>
       </c>
       <c r="I21" s="1">
-        <v>-154.810000</v>
+        <v>-154.81</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>44317.120272</v>
@@ -5394,73 +5810,73 @@
         <v>12.310311</v>
       </c>
       <c r="M21" s="1">
-        <v>940.605000</v>
+        <v>940.60500000000002</v>
       </c>
       <c r="N21" s="1">
-        <v>-114.278000</v>
+        <v>-114.27800000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>44327.644347</v>
+        <v>44327.644347000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>12.313235</v>
+        <v>12.313235000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>948.059000</v>
+        <v>948.05899999999997</v>
       </c>
       <c r="S21" s="1">
-        <v>-100.056000</v>
+        <v>-100.056</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>44338.105965</v>
+        <v>44338.105965000002</v>
       </c>
       <c r="V21" s="1">
         <v>12.316141</v>
       </c>
       <c r="W21" s="1">
-        <v>955.572000</v>
+        <v>955.572</v>
       </c>
       <c r="X21" s="1">
-        <v>-86.834400</v>
+        <v>-86.834400000000002</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>44348.592415</v>
+        <v>44348.592414999999</v>
       </c>
       <c r="AA21" s="1">
         <v>12.319053</v>
       </c>
       <c r="AB21" s="1">
-        <v>963.786000</v>
+        <v>963.78599999999994</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.450300</v>
+        <v>-76.450299999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>44359.069875</v>
+        <v>44359.069875000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>12.321964</v>
+        <v>12.321963999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>969.056000</v>
+        <v>969.05600000000004</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.650200</v>
+        <v>-74.650199999999998</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>44369.592997</v>
@@ -5469,632 +5885,632 @@
         <v>12.324887</v>
       </c>
       <c r="AL21" s="1">
-        <v>976.704000</v>
+        <v>976.70399999999995</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.691100</v>
+        <v>-79.691100000000006</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>44380.804564</v>
+        <v>44380.804563999998</v>
       </c>
       <c r="AP21" s="1">
         <v>12.328001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>984.998000</v>
+        <v>984.99800000000005</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.456500</v>
+        <v>-91.456500000000005</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>44391.594038</v>
+        <v>44391.594038000003</v>
       </c>
       <c r="AU21" s="1">
-        <v>12.330998</v>
+        <v>12.330997999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>994.956000</v>
+        <v>994.95600000000002</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.204000</v>
+        <v>-109.20399999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>44402.253561</v>
+        <v>44402.253560999998</v>
       </c>
       <c r="AZ21" s="1">
         <v>12.333959</v>
       </c>
       <c r="BA21" s="1">
-        <v>1003.270000</v>
+        <v>1003.27</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.971000</v>
+        <v>-124.971</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>44413.237467</v>
+        <v>44413.237466999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>12.337010</v>
+        <v>12.337009999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1041.990000</v>
+        <v>1041.99</v>
       </c>
       <c r="BG21" s="1">
-        <v>-197.358000</v>
+        <v>-197.358</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>44424.936106</v>
+        <v>44424.936106000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>12.340260</v>
+        <v>12.340260000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1108.630000</v>
+        <v>1108.6300000000001</v>
       </c>
       <c r="BL21" s="1">
-        <v>-314.975000</v>
+        <v>-314.97500000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>44435.887311</v>
+        <v>44435.887310999999</v>
       </c>
       <c r="BO21" s="1">
         <v>12.343302</v>
       </c>
       <c r="BP21" s="1">
-        <v>1216.850000</v>
+        <v>1216.8499999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-500.785000</v>
+        <v>-500.78500000000003</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>44446.238286</v>
       </c>
       <c r="BT21" s="1">
-        <v>12.346177</v>
+        <v>12.346177000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1339.120000</v>
+        <v>1339.12</v>
       </c>
       <c r="BV21" s="1">
-        <v>-705.232000</v>
+        <v>-705.23199999999997</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>44457.069928</v>
+        <v>44457.069927999997</v>
       </c>
       <c r="BY21" s="1">
         <v>12.349186</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1475.530000</v>
+        <v>1475.53</v>
       </c>
       <c r="CA21" s="1">
-        <v>-923.076000</v>
+        <v>-923.07600000000002</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>44469.845871</v>
+        <v>44469.845870999998</v>
       </c>
       <c r="CD21" s="1">
-        <v>12.352735</v>
+        <v>12.352734999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1834.590000</v>
+        <v>1834.59</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1441.300000</v>
+        <v>-1441.3</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>44296.514436</v>
+        <v>44296.514435999998</v>
       </c>
       <c r="B22" s="1">
         <v>12.304587</v>
       </c>
       <c r="C22" s="1">
-        <v>902.573000</v>
+        <v>902.57299999999998</v>
       </c>
       <c r="D22" s="1">
-        <v>-180.749000</v>
+        <v>-180.749</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>44306.911574</v>
+        <v>44306.911573999998</v>
       </c>
       <c r="G22" s="1">
         <v>12.307475</v>
       </c>
       <c r="H22" s="1">
-        <v>917.860000</v>
+        <v>917.86</v>
       </c>
       <c r="I22" s="1">
-        <v>-155.149000</v>
+        <v>-155.149</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>44317.414361</v>
+        <v>44317.414361000003</v>
       </c>
       <c r="L22" s="1">
-        <v>12.310393</v>
+        <v>12.310392999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>940.490000</v>
+        <v>940.49</v>
       </c>
       <c r="N22" s="1">
-        <v>-114.152000</v>
+        <v>-114.152</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>44327.992579</v>
+        <v>44327.992578999998</v>
       </c>
       <c r="Q22" s="1">
         <v>12.313331</v>
       </c>
       <c r="R22" s="1">
-        <v>948.050000</v>
+        <v>948.05</v>
       </c>
       <c r="S22" s="1">
-        <v>-100.029000</v>
+        <v>-100.029</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>44338.414972</v>
+        <v>44338.414971999999</v>
       </c>
       <c r="V22" s="1">
         <v>12.316226</v>
       </c>
       <c r="W22" s="1">
-        <v>955.557000</v>
+        <v>955.55700000000002</v>
       </c>
       <c r="X22" s="1">
-        <v>-86.888900</v>
+        <v>-86.888900000000007</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>44348.942062</v>
+        <v>44348.942062000002</v>
       </c>
       <c r="AA22" s="1">
         <v>12.319151</v>
       </c>
       <c r="AB22" s="1">
-        <v>963.807000</v>
+        <v>963.80700000000002</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.416700</v>
+        <v>-76.416700000000006</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>44359.754850</v>
+        <v>44359.754849999998</v>
       </c>
       <c r="AF22" s="1">
-        <v>12.322154</v>
+        <v>12.322153999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>968.902000</v>
+        <v>968.90200000000004</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.689400</v>
+        <v>-74.689400000000006</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>44370.289875</v>
+        <v>44370.289875000002</v>
       </c>
       <c r="AK22" s="1">
-        <v>12.325081</v>
+        <v>12.325081000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>976.708000</v>
+        <v>976.70799999999997</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.682000</v>
+        <v>-79.682000000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>44381.184036</v>
+        <v>44381.184035999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>12.328107</v>
+        <v>12.328106999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>985.001000</v>
+        <v>985.00099999999998</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.454900</v>
+        <v>-91.454899999999995</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>44391.957110</v>
+        <v>44391.957110000003</v>
       </c>
       <c r="AU22" s="1">
         <v>12.331099</v>
       </c>
       <c r="AV22" s="1">
-        <v>994.952000</v>
+        <v>994.952</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.215000</v>
+        <v>-109.215</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>44402.614681</v>
+        <v>44402.614680999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>12.334060</v>
+        <v>12.334059999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1003.270000</v>
+        <v>1003.27</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.971000</v>
+        <v>-124.971</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>44413.905082</v>
+        <v>44413.905081999997</v>
       </c>
       <c r="BE22" s="1">
         <v>12.337196</v>
       </c>
       <c r="BF22" s="1">
-        <v>1041.990000</v>
+        <v>1041.99</v>
       </c>
       <c r="BG22" s="1">
-        <v>-197.354000</v>
+        <v>-197.35400000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>44425.376555</v>
+        <v>44425.376555000003</v>
       </c>
       <c r="BJ22" s="1">
         <v>12.340382</v>
       </c>
       <c r="BK22" s="1">
-        <v>1108.650000</v>
+        <v>1108.6500000000001</v>
       </c>
       <c r="BL22" s="1">
-        <v>-314.961000</v>
+        <v>-314.96100000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>44435.999902</v>
+        <v>44435.999902000003</v>
       </c>
       <c r="BO22" s="1">
-        <v>12.343333</v>
+        <v>12.343332999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1216.880000</v>
+        <v>1216.8800000000001</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-500.772000</v>
+        <v>-500.77199999999999</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>44446.672287</v>
+        <v>44446.672287000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>12.346298</v>
+        <v>12.346298000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1339.150000</v>
+        <v>1339.15</v>
       </c>
       <c r="BV22" s="1">
-        <v>-705.176000</v>
+        <v>-705.17600000000004</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>44457.496976</v>
+        <v>44457.496976000002</v>
       </c>
       <c r="BY22" s="1">
-        <v>12.349305</v>
+        <v>12.349304999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1475.640000</v>
+        <v>1475.64</v>
       </c>
       <c r="CA22" s="1">
-        <v>-923.135000</v>
+        <v>-923.13499999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>44470.363198</v>
+        <v>44470.363197999999</v>
       </c>
       <c r="CD22" s="1">
         <v>12.352879</v>
       </c>
       <c r="CE22" s="1">
-        <v>1834.780000</v>
+        <v>1834.78</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1441.000000</v>
+        <v>-1441</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>44296.795668</v>
+        <v>44296.795667999999</v>
       </c>
       <c r="B23" s="1">
         <v>12.304665</v>
       </c>
       <c r="C23" s="1">
-        <v>902.493000</v>
+        <v>902.49300000000005</v>
       </c>
       <c r="D23" s="1">
-        <v>-180.744000</v>
+        <v>-180.744</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>44307.253815</v>
+        <v>44307.253814999996</v>
       </c>
       <c r="G23" s="1">
-        <v>12.307571</v>
+        <v>12.307570999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>917.844000</v>
+        <v>917.84400000000005</v>
       </c>
       <c r="I23" s="1">
-        <v>-155.584000</v>
+        <v>-155.584</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>44317.762552</v>
       </c>
       <c r="L23" s="1">
-        <v>12.310490</v>
+        <v>12.31049</v>
       </c>
       <c r="M23" s="1">
-        <v>940.516000</v>
+        <v>940.51599999999996</v>
       </c>
       <c r="N23" s="1">
-        <v>-114.132000</v>
+        <v>-114.13200000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>44328.339739</v>
+        <v>44328.339739000003</v>
       </c>
       <c r="Q23" s="1">
         <v>12.313428</v>
       </c>
       <c r="R23" s="1">
-        <v>948.085000</v>
+        <v>948.08500000000004</v>
       </c>
       <c r="S23" s="1">
-        <v>-100.048000</v>
+        <v>-100.048</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>44339.027036</v>
+        <v>44339.027035999999</v>
       </c>
       <c r="V23" s="1">
-        <v>12.316396</v>
+        <v>12.316395999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>955.740000</v>
+        <v>955.74</v>
       </c>
       <c r="X23" s="1">
-        <v>-86.837900</v>
+        <v>-86.837900000000005</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>44349.638942</v>
+        <v>44349.638941999998</v>
       </c>
       <c r="AA23" s="1">
-        <v>12.319344</v>
+        <v>12.319343999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>963.861000</v>
+        <v>963.86099999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.477300</v>
+        <v>-76.4773</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>44360.100099</v>
+        <v>44360.100099000003</v>
       </c>
       <c r="AF23" s="1">
-        <v>12.322250</v>
+        <v>12.32225</v>
       </c>
       <c r="AG23" s="1">
-        <v>969.048000</v>
+        <v>969.048</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.732000</v>
+        <v>-74.731999999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>44370.639555</v>
+        <v>44370.639555000002</v>
       </c>
       <c r="AK23" s="1">
-        <v>12.325178</v>
+        <v>12.325177999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>976.733000</v>
+        <v>976.73299999999995</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.683200</v>
+        <v>-79.683199999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>44381.545093</v>
+        <v>44381.545093000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>12.328207</v>
+        <v>12.328207000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>984.994000</v>
+        <v>984.99400000000003</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.443600</v>
+        <v>-91.443600000000004</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>44392.638117</v>
+        <v>44392.638117000002</v>
       </c>
       <c r="AU23" s="1">
-        <v>12.331288</v>
+        <v>12.331288000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>994.965000</v>
+        <v>994.96500000000003</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.203000</v>
+        <v>-109.203</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>44403.290236</v>
+        <v>44403.290236000001</v>
       </c>
       <c r="AZ23" s="1">
         <v>12.334247</v>
       </c>
       <c r="BA23" s="1">
-        <v>1003.270000</v>
+        <v>1003.27</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.981000</v>
+        <v>-124.98099999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>44414.344042</v>
+        <v>44414.344041999997</v>
       </c>
       <c r="BE23" s="1">
         <v>12.337318</v>
       </c>
       <c r="BF23" s="1">
-        <v>1041.980000</v>
+        <v>1041.98</v>
       </c>
       <c r="BG23" s="1">
-        <v>-197.347000</v>
+        <v>-197.34700000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>44425.781289</v>
+        <v>44425.781288999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>12.340495</v>
+        <v>12.340495000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1108.620000</v>
+        <v>1108.6199999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-314.949000</v>
+        <v>-314.94900000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>44436.423947</v>
+        <v>44436.423947000003</v>
       </c>
       <c r="BO23" s="1">
         <v>12.343451</v>
       </c>
       <c r="BP23" s="1">
-        <v>1216.880000</v>
+        <v>1216.8800000000001</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-500.788000</v>
+        <v>-500.78800000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>44447.083965</v>
+        <v>44447.083964999998</v>
       </c>
       <c r="BT23" s="1">
-        <v>12.346412</v>
+        <v>12.346412000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1339.140000</v>
+        <v>1339.14</v>
       </c>
       <c r="BV23" s="1">
-        <v>-705.121000</v>
+        <v>-705.12099999999998</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>44457.923572</v>
@@ -6103,45 +6519,45 @@
         <v>12.349423</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1475.580000</v>
+        <v>1475.58</v>
       </c>
       <c r="CA23" s="1">
-        <v>-923.002000</v>
+        <v>-923.00199999999995</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>44470.913757</v>
+        <v>44470.913757000002</v>
       </c>
       <c r="CD23" s="1">
-        <v>12.353032</v>
+        <v>12.353032000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1835.540000</v>
+        <v>1835.54</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1441.060000</v>
+        <v>-1441.06</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>44297.133939</v>
+        <v>44297.133938999999</v>
       </c>
       <c r="B24" s="1">
-        <v>12.304759</v>
+        <v>12.304759000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>902.507000</v>
+        <v>902.50699999999995</v>
       </c>
       <c r="D24" s="1">
-        <v>-180.776000</v>
+        <v>-180.77600000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>44307.600777</v>
@@ -6150,118 +6566,118 @@
         <v>12.307667</v>
       </c>
       <c r="H24" s="1">
-        <v>918.240000</v>
+        <v>918.24</v>
       </c>
       <c r="I24" s="1">
-        <v>-155.473000</v>
+        <v>-155.47300000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>44318.105783</v>
+        <v>44318.105782999999</v>
       </c>
       <c r="L24" s="1">
         <v>12.310585</v>
       </c>
       <c r="M24" s="1">
-        <v>940.452000</v>
+        <v>940.452</v>
       </c>
       <c r="N24" s="1">
-        <v>-114.085000</v>
+        <v>-114.08499999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>44329.036617</v>
+        <v>44329.036616999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>12.313621</v>
+        <v>12.313620999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>948.075000</v>
+        <v>948.07500000000005</v>
       </c>
       <c r="S24" s="1">
-        <v>-100.072000</v>
+        <v>-100.072</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>44339.443708</v>
+        <v>44339.443707999999</v>
       </c>
       <c r="V24" s="1">
-        <v>12.316512</v>
+        <v>12.316511999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>955.531000</v>
+        <v>955.53099999999995</v>
       </c>
       <c r="X24" s="1">
-        <v>-86.694500</v>
+        <v>-86.694500000000005</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>44349.987170</v>
+        <v>44349.98717</v>
       </c>
       <c r="AA24" s="1">
-        <v>12.319441</v>
+        <v>12.319440999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>963.861000</v>
+        <v>963.86099999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.420000</v>
+        <v>-76.42</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>44360.442341</v>
+        <v>44360.442341000002</v>
       </c>
       <c r="AF24" s="1">
         <v>12.322345</v>
       </c>
       <c r="AG24" s="1">
-        <v>969.039000</v>
+        <v>969.03899999999999</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.649400</v>
+        <v>-74.6494</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>44370.991217</v>
+        <v>44370.991217000003</v>
       </c>
       <c r="AK24" s="1">
         <v>12.325275</v>
       </c>
       <c r="AL24" s="1">
-        <v>976.706000</v>
+        <v>976.70600000000002</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.683100</v>
+        <v>-79.683099999999996</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>44382.212212</v>
+        <v>44382.212211999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>12.328392</v>
+        <v>12.328391999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>985.002000</v>
+        <v>985.00199999999995</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.443000</v>
+        <v>-91.442999999999998</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>44393.050292</v>
@@ -6270,165 +6686,165 @@
         <v>12.331403</v>
       </c>
       <c r="AV24" s="1">
-        <v>994.938000</v>
+        <v>994.93799999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.223000</v>
+        <v>-109.223</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>44403.692016</v>
+        <v>44403.692016000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>12.334359</v>
+        <v>12.334358999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1003.260000</v>
+        <v>1003.26</v>
       </c>
       <c r="BB24" s="1">
-        <v>-125.002000</v>
+        <v>-125.002</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>44414.702648</v>
+        <v>44414.702647999999</v>
       </c>
       <c r="BE24" s="1">
         <v>12.337417</v>
       </c>
       <c r="BF24" s="1">
-        <v>1041.980000</v>
+        <v>1041.98</v>
       </c>
       <c r="BG24" s="1">
-        <v>-197.370000</v>
+        <v>-197.37</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>44426.158248</v>
       </c>
       <c r="BJ24" s="1">
-        <v>12.340600</v>
+        <v>12.3406</v>
       </c>
       <c r="BK24" s="1">
-        <v>1108.630000</v>
+        <v>1108.6300000000001</v>
       </c>
       <c r="BL24" s="1">
-        <v>-314.984000</v>
+        <v>-314.98399999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>44436.819755</v>
+        <v>44436.819754999997</v>
       </c>
       <c r="BO24" s="1">
-        <v>12.343561</v>
+        <v>12.343560999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1216.880000</v>
+        <v>1216.8800000000001</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-500.731000</v>
+        <v>-500.73099999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>44447.513036</v>
+        <v>44447.513035999997</v>
       </c>
       <c r="BT24" s="1">
-        <v>12.346531</v>
+        <v>12.346531000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1339.140000</v>
+        <v>1339.14</v>
       </c>
       <c r="BV24" s="1">
-        <v>-705.112000</v>
+        <v>-705.11199999999997</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>44458.360510</v>
+        <v>44458.360509999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>12.349545</v>
+        <v>12.349545000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1475.560000</v>
+        <v>1475.56</v>
       </c>
       <c r="CA24" s="1">
-        <v>-922.956000</v>
+        <v>-922.95600000000002</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>44471.441502</v>
+        <v>44471.441502000001</v>
       </c>
       <c r="CD24" s="1">
         <v>12.353178</v>
       </c>
       <c r="CE24" s="1">
-        <v>1834.510000</v>
+        <v>1834.51</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1441.460000</v>
+        <v>-1441.46</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>44297.476180</v>
+        <v>44297.476179999998</v>
       </c>
       <c r="B25" s="1">
-        <v>12.304854</v>
+        <v>12.304854000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>902.405000</v>
+        <v>902.40499999999997</v>
       </c>
       <c r="D25" s="1">
-        <v>-180.978000</v>
+        <v>-180.97800000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>44308.288468</v>
+        <v>44308.288467999999</v>
       </c>
       <c r="G25" s="1">
         <v>12.307858</v>
       </c>
       <c r="H25" s="1">
-        <v>917.969000</v>
+        <v>917.96900000000005</v>
       </c>
       <c r="I25" s="1">
-        <v>-155.323000</v>
+        <v>-155.32300000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>44318.799687</v>
+        <v>44318.799686999999</v>
       </c>
       <c r="L25" s="1">
-        <v>12.310778</v>
+        <v>12.310778000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>940.577000</v>
+        <v>940.577</v>
       </c>
       <c r="N25" s="1">
-        <v>-114.233000</v>
+        <v>-114.233</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>44329.386327</v>
@@ -6437,163 +6853,163 @@
         <v>12.313718</v>
       </c>
       <c r="R25" s="1">
-        <v>948.100000</v>
+        <v>948.1</v>
       </c>
       <c r="S25" s="1">
-        <v>-100.139000</v>
+        <v>-100.139</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>44339.787899</v>
+        <v>44339.787899000003</v>
       </c>
       <c r="V25" s="1">
         <v>12.316608</v>
       </c>
       <c r="W25" s="1">
-        <v>955.598000</v>
+        <v>955.59799999999996</v>
       </c>
       <c r="X25" s="1">
-        <v>-86.801200</v>
+        <v>-86.801199999999994</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>44350.335855</v>
+        <v>44350.335854999998</v>
       </c>
       <c r="AA25" s="1">
         <v>12.319538</v>
       </c>
       <c r="AB25" s="1">
-        <v>963.863000</v>
+        <v>963.86300000000006</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.427800</v>
+        <v>-76.427800000000005</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>44361.102515</v>
+        <v>44361.102514999999</v>
       </c>
       <c r="AF25" s="1">
         <v>12.322528</v>
       </c>
       <c r="AG25" s="1">
-        <v>969.048000</v>
+        <v>969.048</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.638400</v>
+        <v>-74.638400000000004</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>44371.687613</v>
+        <v>44371.687613000002</v>
       </c>
       <c r="AK25" s="1">
         <v>12.325469</v>
       </c>
       <c r="AL25" s="1">
-        <v>976.727000</v>
+        <v>976.72699999999998</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.720300</v>
+        <v>-79.720299999999995</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>44382.624883</v>
+        <v>44382.624882999997</v>
       </c>
       <c r="AP25" s="1">
         <v>12.328507</v>
       </c>
       <c r="AQ25" s="1">
-        <v>984.987000</v>
+        <v>984.98699999999997</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.422100</v>
+        <v>-91.4221</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>44393.413860</v>
+        <v>44393.413860000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>12.331504</v>
+        <v>12.331504000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>994.951000</v>
+        <v>994.95100000000002</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.216000</v>
+        <v>-109.21599999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>44404.078837</v>
+        <v>44404.078837000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>12.334466</v>
+        <v>12.334466000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1003.270000</v>
+        <v>1003.27</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.964000</v>
+        <v>-124.964</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>44415.063275</v>
       </c>
       <c r="BE25" s="1">
-        <v>12.337518</v>
+        <v>12.337517999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1041.980000</v>
+        <v>1041.98</v>
       </c>
       <c r="BG25" s="1">
-        <v>-197.349000</v>
+        <v>-197.34899999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>44426.580872</v>
+        <v>44426.580871999999</v>
       </c>
       <c r="BJ25" s="1">
         <v>12.340717</v>
       </c>
       <c r="BK25" s="1">
-        <v>1108.630000</v>
+        <v>1108.6300000000001</v>
       </c>
       <c r="BL25" s="1">
-        <v>-314.985000</v>
+        <v>-314.98500000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>44437.250282</v>
+        <v>44437.250282000001</v>
       </c>
       <c r="BO25" s="1">
         <v>12.343681</v>
       </c>
       <c r="BP25" s="1">
-        <v>1216.880000</v>
+        <v>1216.8800000000001</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-500.808000</v>
+        <v>-500.80799999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>44447.943068</v>
@@ -6602,302 +7018,303 @@
         <v>12.346651</v>
       </c>
       <c r="BU25" s="1">
-        <v>1339.140000</v>
+        <v>1339.14</v>
       </c>
       <c r="BV25" s="1">
-        <v>-705.061000</v>
+        <v>-705.06100000000004</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>44458.782641</v>
+        <v>44458.782640999998</v>
       </c>
       <c r="BY25" s="1">
         <v>12.349662</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1475.510000</v>
+        <v>1475.51</v>
       </c>
       <c r="CA25" s="1">
-        <v>-923.115000</v>
+        <v>-923.11500000000001</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>44471.961340</v>
+        <v>44471.961340000002</v>
       </c>
       <c r="CD25" s="1">
         <v>12.353323</v>
       </c>
       <c r="CE25" s="1">
-        <v>1835.880000</v>
+        <v>1835.88</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1442.430000</v>
+        <v>-1442.43</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>44298.159698</v>
+        <v>44298.159698000003</v>
       </c>
       <c r="B26" s="1">
-        <v>12.305044</v>
+        <v>12.305044000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>902.378000</v>
+        <v>902.37800000000004</v>
       </c>
       <c r="D26" s="1">
-        <v>-180.953000</v>
+        <v>-180.953</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>44308.633786</v>
+        <v>44308.633785999999</v>
       </c>
       <c r="G26" s="1">
-        <v>12.307954</v>
+        <v>12.307954000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>917.964000</v>
+        <v>917.96400000000006</v>
       </c>
       <c r="I26" s="1">
-        <v>-155.456000</v>
+        <v>-155.45599999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>44319.146918</v>
+        <v>44319.146917999999</v>
       </c>
       <c r="L26" s="1">
         <v>12.310874</v>
       </c>
       <c r="M26" s="1">
-        <v>940.611000</v>
+        <v>940.61099999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-114.200000</v>
+        <v>-114.2</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>44329.736472</v>
+        <v>44329.736471999997</v>
       </c>
       <c r="Q26" s="1">
-        <v>12.313816</v>
+        <v>12.313815999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>948.049000</v>
+        <v>948.04899999999998</v>
       </c>
       <c r="S26" s="1">
-        <v>-100.174000</v>
+        <v>-100.17400000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>44340.445097</v>
+        <v>44340.445097000003</v>
       </c>
       <c r="V26" s="1">
-        <v>12.316790</v>
+        <v>12.316789999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>955.570000</v>
+        <v>955.57</v>
       </c>
       <c r="X26" s="1">
-        <v>-86.650600</v>
+        <v>-86.650599999999997</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>44350.997516</v>
+        <v>44350.997516000003</v>
       </c>
       <c r="AA26" s="1">
-        <v>12.319722</v>
+        <v>12.319722000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>963.843000</v>
+        <v>963.84299999999996</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.441300</v>
+        <v>-76.441299999999998</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>44361.475470</v>
+        <v>44361.475469999998</v>
       </c>
       <c r="AF26" s="1">
         <v>12.322632</v>
       </c>
       <c r="AG26" s="1">
-        <v>969.084000</v>
+        <v>969.08399999999995</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.665800</v>
+        <v>-74.665800000000004</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>44372.034800</v>
+        <v>44372.034800000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>12.325565</v>
+        <v>12.325564999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>976.689000</v>
+        <v>976.68899999999996</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.697900</v>
+        <v>-79.697900000000004</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>44383.008785</v>
+        <v>44383.008784999998</v>
       </c>
       <c r="AP26" s="1">
         <v>12.328614</v>
       </c>
       <c r="AQ26" s="1">
-        <v>984.995000</v>
+        <v>984.995</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.422500</v>
+        <v>-91.422499999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>44393.782885</v>
+        <v>44393.782885000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>12.331606</v>
+        <v>12.331606000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>994.967000</v>
+        <v>994.96699999999998</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.213000</v>
+        <v>-109.21299999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>44404.434010</v>
+        <v>44404.434009999997</v>
       </c>
       <c r="AZ26" s="1">
         <v>12.334565</v>
       </c>
       <c r="BA26" s="1">
-        <v>1003.280000</v>
+        <v>1003.28</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.969000</v>
+        <v>-124.96899999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>44415.482358</v>
+        <v>44415.482358000001</v>
       </c>
       <c r="BE26" s="1">
         <v>12.337634</v>
       </c>
       <c r="BF26" s="1">
-        <v>1041.980000</v>
+        <v>1041.98</v>
       </c>
       <c r="BG26" s="1">
-        <v>-197.350000</v>
+        <v>-197.35</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>44426.929529</v>
+        <v>44426.929529000001</v>
       </c>
       <c r="BJ26" s="1">
         <v>12.340814</v>
       </c>
       <c r="BK26" s="1">
-        <v>1108.600000</v>
+        <v>1108.5999999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-314.950000</v>
+        <v>-314.95</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>44437.638935</v>
+        <v>44437.638935000003</v>
       </c>
       <c r="BO26" s="1">
-        <v>12.343789</v>
+        <v>12.343788999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1216.880000</v>
+        <v>1216.8800000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-500.726000</v>
+        <v>-500.726</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>44448.351739</v>
+        <v>44448.351738999998</v>
       </c>
       <c r="BT26" s="1">
         <v>12.346764</v>
       </c>
       <c r="BU26" s="1">
-        <v>1339.170000</v>
+        <v>1339.17</v>
       </c>
       <c r="BV26" s="1">
-        <v>-704.999000</v>
+        <v>-704.99900000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>44459.205229</v>
+        <v>44459.205228999999</v>
       </c>
       <c r="BY26" s="1">
         <v>12.349779</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1475.600000</v>
+        <v>1475.6</v>
       </c>
       <c r="CA26" s="1">
-        <v>-923.114000</v>
+        <v>-923.11400000000003</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>44472.501451</v>
+        <v>44472.501450999996</v>
       </c>
       <c r="CD26" s="1">
-        <v>12.353473</v>
+        <v>12.353472999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1834.960000</v>
+        <v>1834.96</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1440.590000</v>
+        <v>-1440.59</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>